--- a/yield_prediction/results/graph_descriptors/WLrbf_6/out_of_sample/additive/ranking_test3/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLrbf_6/out_of_sample/additive/ranking_test3/results.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.23</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>23.209</v>
+        <v>19.883</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.132</v>
+        <v>0.576</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>24.956</v>
+        <v>17.438</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.999</v>
+        <v>0.624</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.986</v>
+        <v>16.826</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>27.47105468073818</v>
+        <v>-6.856161518528889</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>27.99907138117496</v>
+        <v>12.13364637651103</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>29.52639009334061</v>
+        <v>19.38651017997654</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>26.27293913600841</v>
+        <v>-11.10109061908679</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>28.37106710517637</v>
+        <v>9.20394098218026</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>28.83182529982718</v>
+        <v>15.83400672087192</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>26.92634234786785</v>
+        <v>-3.331433482263375</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>30.54103190807789</v>
+        <v>19.06585776389352</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>30.73716986809221</v>
+        <v>27.14197523898929</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>27.94038681457697</v>
+        <v>20.65761622028936</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>28.41579660623975</v>
+        <v>31.39794662190184</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>28.2672079444841</v>
+        <v>38.33846949483745</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>28.36992039670261</v>
+        <v>-0.0172286470027494</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>28.11644085938285</v>
+        <v>24.6381478402368</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>29.82762920588372</v>
+        <v>33.60711975344338</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>27.01791188355772</v>
+        <v>-2.274388755342553</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>28.85588738699183</v>
+        <v>16.72466937396507</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>29.66942538994453</v>
+        <v>23.98092891908164</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>26.21719388873695</v>
+        <v>-6.534838478389471</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>27.13059444367611</v>
+        <v>13.77795011708247</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>27.55396137491267</v>
+        <v>20.41234208046342</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>26.39481240481355</v>
+        <v>1.241881245198446</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>28.58413186765921</v>
+        <v>23.64853619998553</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>28.56493588868593</v>
+        <v>4.352448036482546</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>29.51044900181692</v>
+        <v>23.34351418860536</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>29.97938729225393</v>
+        <v>30.5961826948884</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>26.33911594142647</v>
+        <v>0.1106703097108301</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>29.91245729440161</v>
+        <v>20.41723230455421</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>30.13634081352599</v>
+        <v>27.04709142309173</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>27.02030471425648</v>
+        <v>7.881299856539616</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>32.20822347410436</v>
+        <v>30.27991416773955</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>31.88179026617284</v>
+        <v>38.3558533787251</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>31.77557709604083</v>
+        <v>31.8730284579201</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>32.81524970611216</v>
+        <v>42.61347472885973</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>32.65124767644517</v>
+        <v>49.5538660811992</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>30.02980923131073</v>
+        <v>11.19664636885227</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>30.9965915812034</v>
+        <v>35.85376715023062</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>31.06009857670406</v>
+        <v>44.82242798006905</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>28.21941438372209</v>
+        <v>8.938435973596942</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>29.34866934501824</v>
+        <v>27.93875253072122</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>29.70607977625604</v>
+        <v>35.19481679368948</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>26.26154001884584</v>
+        <v>4.681138300108618</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>28.74376699541335</v>
+        <v>24.99545747103003</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>29.40274984240624</v>
+        <v>31.62964282523786</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>26.35790636009409</v>
+        <v>12.45883068213277</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>31.00872526872464</v>
+        <v>34.86680887619684</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>27.1459208853139</v>
+        <v>7.404005633505793</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>28.72422293213723</v>
+        <v>26.3956964497221</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>29.78503657572737</v>
+        <v>33.64856879032811</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>26.22138864090441</v>
+        <v>3.164403750768091</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>29.76620370008998</v>
+        <v>23.47166303235918</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>29.93182472322433</v>
+        <v>30.10177880502465</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>26.86672200751376</v>
+        <v>10.93506086793468</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>32.16588860948121</v>
+        <v>33.33429884454199</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>32.42846937779638</v>
+        <v>41.41042832113044</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>32.2666816229296</v>
+        <v>34.92783605594445</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>33.20889987922057</v>
+        <v>45.6682611356905</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>33.63050927143359</v>
+        <v>52.60879977989612</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>27.91445323649393</v>
+        <v>14.25081747282821</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>30.49459668830679</v>
+        <v>38.90892852795855</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>31.23152278434898</v>
+        <v>47.87773674952973</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>27.4683069061755</v>
+        <v>11.99162233164725</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>29.27500424747834</v>
+        <v>30.9925635709169</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>29.78139885512433</v>
+        <v>38.24883173733792</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>26.20436360587535</v>
+        <v>7.736500784906301</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>28.81865760058634</v>
+        <v>28.05151726525026</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>29.66574347119374</v>
+        <v>34.68595935015003</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>26.81728281158385</v>
+        <v>15.51422081221518</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>31.0529422242972</v>
+        <v>37.92282268708072</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>26.61246295574052</v>
+        <v>-0.3504796664330989</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>27.3388245449414</v>
+        <v>18.64044380346639</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>28.91415225181383</v>
+        <v>25.89377675989079</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>26.20472108604802</v>
+        <v>-4.591724086953146</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>29.17446741353731</v>
+        <v>15.71454741681373</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>30.17118958122542</v>
+        <v>22.34518289014023</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>26.31340069662228</v>
+        <v>3.177922353375724</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>30.96260074140024</v>
+        <v>25.57633118153297</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>32.02259209737635</v>
+        <v>33.65289264912951</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>30.89861929675394</v>
+        <v>27.16853460032531</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>31.53185493618592</v>
+        <v>37.90886779084053</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>32.18125210481272</v>
+        <v>44.84972715346817</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>26.59017578685627</v>
+        <v>6.492597171945935</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>28.61119658380214</v>
+        <v>31.14973114034376</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>30.91201111906589</v>
+        <v>40.11909944216575</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>26.77912323829193</v>
+        <v>4.233937792585952</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>28.83681089868892</v>
+        <v>23.2341115518243</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>29.5375279553124</v>
+        <v>30.49084040222988</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>26.21165387338294</v>
+        <v>-0.0228268898908901</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>28.37212981209705</v>
+        <v>20.291201672635</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>29.30403086507944</v>
+        <v>26.92616354188749</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>26.28136826249904</v>
+        <v>7.753882290269079</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>30.13842061311657</v>
+        <v>30.16165487668377</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>28.82043950717866</v>
+        <v>31.72827567969421</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>28.07411232612796</v>
+        <v>25.23978028208819</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>30.10673219884202</v>
+        <v>35.98745044568147</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>30.59169287508444</v>
+        <v>42.92973217776773</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>26.96120709828772</v>
+        <v>4.561308512483496</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>28.26263741037847</v>
+        <v>29.23237852707121</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>28.81132851903449</v>
+        <v>38.20197629856557</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>27.75555451497136</v>
+        <v>7.682471936197434</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>29.06355929078904</v>
+        <v>26.6843535648801</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>30.31807664434613</v>
+        <v>33.94195134180802</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>26.21883251631454</v>
+        <v>3.432134782810184</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>27.00533219845757</v>
+        <v>23.74890659182279</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>27.63085911352943</v>
+        <v>30.38410468490725</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>26.51321942247828</v>
+        <v>11.21251411483707</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>28.68170743442122</v>
+        <v>33.62210900087177</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>30.63641901462428</v>
+        <v>41.70322785205497</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>28.73764181867562</v>
+        <v>35.22260127908658</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>31.61226126084455</v>
+        <v>45.9699577505703</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>31.82179009958477</v>
+        <v>52.91344063617078</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>27.03060595137951</v>
+        <v>14.53698215607836</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>28.36447502018308</v>
+        <v>39.21053784941762</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>29.35306813845065</v>
+        <v>48.18162889108805</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>31.67265502444045</v>
+        <v>42.94637011541647</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>30.80954963168685</v>
+        <v>36.45940865107502</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>32.71949805487206</v>
+        <v>47.20719465593936</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>33.29692911435838</v>
+        <v>54.14934488300344</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>28.66838022359443</v>
+        <v>15.77939954278145</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>31.91821218792745</v>
+        <v>40.45221410379804</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>31.74413648314757</v>
+        <v>49.42150084738728</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>28.76425070157282</v>
+        <v>18.8969188362845</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>29.46302541293165</v>
+        <v>37.90005882674393</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>31.26836021868457</v>
+        <v>45.1574613053175</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>26.3410861083844</v>
+        <v>14.64973377736158</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>30.12765472220636</v>
+        <v>34.96803606514538</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>31.05662462151497</v>
+        <v>41.6030275392535</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>26.91116765874575</v>
+        <v>22.43108593068314</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>32.95356763240775</v>
+        <v>44.84200400349937</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>34.48411563654638</v>
+        <v>52.92294458282993</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>33.48237300503321</v>
+        <v>46.44385201355044</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>35.56572483192407</v>
+        <v>57.19132428059663</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>36.38641938391087</v>
+        <v>64.13467564217888</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>29.87426434149824</v>
+        <v>25.75669555836715</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>34.66647729205502</v>
+        <v>50.43199569577916</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>34.8160011101053</v>
+        <v>59.40277568706085</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>32.66790201347841</v>
+        <v>46.00257425995392</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>30.5990615270041</v>
+        <v>39.51584519759444</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>31.44024282920463</v>
+        <v>50.26360993751746</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>32.95391794907852</v>
+        <v>57.20590752616602</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>27.82445475504827</v>
+        <v>18.8351996500943</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>31.78148221700799</v>
+        <v>43.50900453877455</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>32.07873925401513</v>
+        <v>52.47843874872626</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>27.91111850148275</v>
+        <v>21.95177816023579</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>29.91549704836732</v>
+        <v>40.95554283510978</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>31.38065276980288</v>
+        <v>48.21314916990173</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>26.24531642122432</v>
+        <v>17.7067692239292</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>30.09664952295491</v>
+        <v>38.02576881534594</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>30.9655921478061</v>
+        <v>44.66101697787769</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>27.19252760259028</v>
+        <v>25.488149108509</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>32.99295322668796</v>
+        <v>47.89969086876988</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>35.15519128598501</v>
+        <v>55.98082172736656</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>34.10302377821696</v>
+        <v>49.50196155041135</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>35.4001736888132</v>
+        <v>60.2494125396131</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>36.91243933752278</v>
+        <v>67.19291120857952</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>28.62959533180908</v>
+        <v>28.8141685696935</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>33.91312593557892</v>
+        <v>53.49045898930854</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>34.75596315571469</v>
+        <v>62.46138643607765</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>31.39383236394775</v>
+        <v>38.24183849796873</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>28.37098526194999</v>
+        <v>31.75334355770849</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>29.4316620450881</v>
+        <v>42.50101640551532</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>30.50590387134862</v>
+        <v>49.44363477794047</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>26.92944230747037</v>
+        <v>11.07377933239161</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>30.97251230533154</v>
+        <v>35.74660697097681</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>31.63999004094179</v>
+        <v>44.71660127183839</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>27.37666019955321</v>
+        <v>14.19396520150679</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>29.66626196865166</v>
+        <v>33.19696249665105</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>31.6783291334276</v>
+        <v>40.455029496169</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>26.24710832676868</v>
+        <v>9.94731314073886</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>29.90762816666328</v>
+        <v>30.26532494980268</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>31.45313066454978</v>
+        <v>36.90109287218149</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>26.35151039123421</v>
+        <v>17.72768208583898</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>32.34518100403734</v>
+        <v>40.13839464599027</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>34.99683203441991</v>
+        <v>48.21995754498289</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>32.69876968429526</v>
+        <v>41.7393314318582</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>34.21896108912732</v>
+        <v>52.48669057314407</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>36.32527723614914</v>
+        <v>59.43050999805985</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>26.90562336576662</v>
+        <v>21.05261964352599</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>32.50851979683597</v>
+        <v>45.72793290681602</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>35.06914291748819</v>
+        <v>54.69942046907306</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>20.72999472116578</v>
+        <v>-9.891629871044866</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>21.14603833415264</v>
+        <v>9.095268152008206</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>30.4428135627622</v>
+        <v>16.3483708553531</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>17.11195407806</v>
+        <v>-14.13709862487405</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>28.22329128450951</v>
+        <v>6.16479961807693</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>30.40296346368639</v>
+        <v>12.79528112043829</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>19.30513911057447</v>
+        <v>-6.368858159646148</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>40.90694245284565</v>
+        <v>16.02521332057643</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>41.19036253656337</v>
+        <v>24.10148202990002</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>22.29919293126684</v>
+        <v>17.61745752479556</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>23.91039382032602</v>
+        <v>28.35650895554545</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>22.56339326484716</v>
+        <v>35.29727784291913</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>25.29083136324233</v>
+        <v>-3.053726310215662</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>22.9148770091278</v>
+        <v>21.59839347702541</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>28.51851428471777</v>
+        <v>30.5673992616778</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>22.07468606680577</v>
+        <v>-5.313358644882666</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>31.61005676289996</v>
+        <v>13.68278893097022</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>31.61082621663991</v>
+        <v>20.93928747503356</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>17.00715273142787</v>
+        <v>-9.574346491267871</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>24.11530723626431</v>
+        <v>10.73530824955117</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>27.46084933290608</v>
+        <v>17.37011602335213</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>17.70094888223252</v>
+        <v>-1.79904456333065</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>33.6777973351809</v>
+        <v>20.60438990203898</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>28.74272352541435</v>
+        <v>1.316323233535858</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>33.11221722293165</v>
+        <v>20.30447938876546</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>33.24681526258814</v>
+        <v>27.55738684162361</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>17.23856911555408</v>
+        <v>-2.925994456825602</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>34.39304591072431</v>
+        <v>17.37743402070771</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>35.54958960060797</v>
+        <v>24.00770896091524</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>19.58760897814565</v>
+        <v>4.843218357010645</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>45.87874761046636</v>
+        <v>27.23861277331537</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>43.28608806790883</v>
+        <v>35.31470326270335</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>39.27584789318069</v>
+        <v>28.832212679171</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>43.3042725364085</v>
+        <v>39.57137997900679</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>43.20316620272849</v>
+        <v>46.51201735987536</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>29.88744483245334</v>
+        <v>8.159491766827731</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>24.23020846732074</v>
+        <v>32.8133556750289</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>24.32257624313624</v>
+        <v>41.78205043334685</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>28.79666704676164</v>
+        <v>5.898809197463383</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>34.32096693773567</v>
+        <v>24.8962150763889</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>34.88238412642539</v>
+        <v>32.15251838503787</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>17.1477146163601</v>
+        <v>1.640973090251467</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>31.55908099252308</v>
+        <v>21.95215824756008</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>34.70825313336923</v>
+        <v>28.58675947011705</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>17.91143453200414</v>
+        <v>9.417247614995862</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>44.31063372717632</v>
+        <v>31.82200519096523</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>18.54517805526859</v>
+        <v>4.36770060491563</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>26.06982837255875</v>
+        <v>23.35648137091244</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>29.01197838400191</v>
+        <v>30.60959265461088</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>16.85935250249662</v>
+        <v>0.127558564571931</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>34.254632089624</v>
+        <v>20.43168426862428</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>32.36696289883344</v>
+        <v>27.0622158560492</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>19.67539420329576</v>
+        <v>7.896798955837088</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>43.85212268921475</v>
+        <v>30.29281698433261</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>45.2252397717919</v>
+        <v>38.36909773755701</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>44.05245179887667</v>
+        <v>31.88683976053665</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>50.37715208873006</v>
+        <v>42.62598587534865</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>52.8253815603486</v>
+        <v>49.56677054309341</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>19.36165584994377</v>
+        <v>11.21348241209126</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>22.93658012861022</v>
+        <v>35.86833650486392</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>24.84995812947563</v>
+        <v>44.83717865934955</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>22.45343369255393</v>
+        <v>8.951815149668395</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>33.33289766853786</v>
+        <v>27.94984565695973</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>34.50445781892419</v>
+        <v>35.20635286561969</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>16.86089160231684</v>
+        <v>4.696154974822324</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>33.32328801643452</v>
+        <v>25.00803738112177</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>35.84578049573483</v>
+        <v>31.64289532764861</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>17.69195135126072</v>
+        <v>12.47245715187569</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>44.00622789411991</v>
+        <v>34.87783835529535</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>17.64569297190974</v>
+        <v>-3.386425580082228</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>21.19101563659672</v>
+        <v>15.6015879176058</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>29.82115120346594</v>
+        <v>22.8551597592749</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>16.82673258827628</v>
+        <v>-7.628209978308629</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>35.49716017607386</v>
+        <v>12.67492805643315</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>37.71133507326956</v>
+        <v>19.3059792700044</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>17.25961784152234</v>
+        <v>0.1400198004820403</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>46.25494421417582</v>
+        <v>22.53520876225616</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>47.32888066109977</v>
+        <v>30.6119214528876</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>46.39502015259696</v>
+        <v>24.12789787104748</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>49.83942539014596</v>
+        <v>34.86695209366758</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>51.57722628868224</v>
+        <v>41.8080574600524</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>17.57050271666916</v>
+        <v>3.455621578507138</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>20.08407199046603</v>
+        <v>28.10949868639114</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>24.0292949818001</v>
+        <v>37.07890085575718</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>20.30519828543871</v>
+        <v>1.194490042588772</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>32.36900173960048</v>
+        <v>20.19175314791847</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>34.57343307803291</v>
+        <v>27.44872098283441</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>16.96149508869802</v>
+        <v>-3.062813087679839</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>31.24246343629279</v>
+        <v>17.24808150945603</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>34.61858189723829</v>
+        <v>23.88345916559581</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>17.21436619328516</v>
+        <v>4.712478306423808</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>41.51669131765108</v>
+        <v>27.11703030325555</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>33.63278844671103</v>
+        <v>28.68428069142238</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>29.30384051441838</v>
+        <v>22.19612005540728</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>37.18638354214931</v>
+        <v>32.94251067529433</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>39.17064174832601</v>
+        <v>39.88503861916308</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>22.16804797299818</v>
+        <v>1.521309426657584</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>30.77275739814277</v>
+        <v>26.18912175262244</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>33.7337421453068</v>
+        <v>35.15875358310996</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>24.65290847873315</v>
+        <v>4.643759225238686</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>31.97476039647347</v>
+        <v>23.64273017163851</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>34.6050228941379</v>
+        <v>30.90056656654156</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>17.00371842625933</v>
+        <v>0.3928830841131266</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>22.30089989416408</v>
+        <v>20.70652079556988</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>26.23436113518111</v>
+        <v>27.34213440639713</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>17.87627261264053</v>
+        <v>8.171844391538801</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>31.84262954365322</v>
+        <v>30.57821866921632</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>40.94595413259609</v>
+        <v>38.65948844188119</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>30.4133004229583</v>
+        <v>32.1791960314664</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>41.01558960971106</v>
+        <v>42.92527295088178</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>42.46976070576275</v>
+        <v>49.86900176895381</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>21.60108435128896</v>
+        <v>11.49723865996589</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>29.39699745874784</v>
+        <v>36.16753637451984</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>34.60144953323923</v>
+        <v>45.13866123402454</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>44.88351696465505</v>
+        <v>39.90171778429681</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>42.67491296898578</v>
+        <v>33.41509090497539</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>48.33066204128774</v>
+        <v>44.16159736588861</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>49.32807888905535</v>
+        <v>51.10399381912657</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>29.57121298262399</v>
+        <v>12.73874308260122</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>46.6189586710811</v>
+        <v>37.40829978149975</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>46.53605808133203</v>
+        <v>46.37762064087008</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>30.05204692098794</v>
+        <v>15.85754915130054</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>29.26735840761192</v>
+        <v>34.85777833447617</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>33.97235066953095</v>
+        <v>42.11541947767876</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>17.38371447040442</v>
+        <v>11.60982479390885</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>33.69626601653545</v>
+        <v>31.92499282531265</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>35.99872951681408</v>
+        <v>38.560399874891</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>19.15102337210647</v>
+        <v>19.38975886123444</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>46.41767320620766</v>
+        <v>41.79745619689356</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>48.64157766206424</v>
+        <v>49.87854774195057</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>49.01265570726714</v>
+        <v>43.399789158526</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>53.22085487355972</v>
+        <v>54.14598187361491</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>54.17061247797898</v>
+        <v>61.08957918193698</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>31.67060520510428</v>
+        <v>22.71629460017676</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>52.14450787839166</v>
+        <v>47.38833658514</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>52.49516880012106</v>
+        <v>56.35915045100387</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>46.39480993191933</v>
+        <v>42.95774128060884</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>39.26600954187227</v>
+        <v>36.47134675444454</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>43.75110734586865</v>
+        <v>47.21783195650369</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>49.00304416039238</v>
+        <v>54.16037576589258</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>23.04055586073663</v>
+        <v>15.79436255080418</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>45.35663296929494</v>
+        <v>40.46490948839482</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>46.10807504806429</v>
+        <v>49.43437781829721</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>24.48409682721943</v>
+        <v>18.91222794059695</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>34.64557774192066</v>
+        <v>37.91308175460972</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>35.90244081839948</v>
+        <v>45.17092675071353</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>17.01999395063401</v>
+        <v>14.66667951188458</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>35.15870083024384</v>
+        <v>34.98254478640717</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>34.88097022752989</v>
+        <v>41.61820851771415</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>19.62898898704236</v>
+        <v>22.44664131728542</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>47.11529925512276</v>
+        <v>44.85496228702368</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>49.49101360885646</v>
+        <v>52.93624410958807</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>50.77601950311768</v>
+        <v>46.45771787022477</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>53.57833705269481</v>
+        <v>57.20388931331979</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>57.04102290252139</v>
+        <v>64.14763392362659</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>24.80150978369012</v>
+        <v>25.77358684364856</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>52.05439918615956</v>
+        <v>50.44661902204359</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>53.257186437725</v>
+        <v>59.41758034765417</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>45.29336475971737</v>
+        <v>35.1973652232947</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>29.85163907235768</v>
+        <v>28.70920499832494</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>36.40069285880718</v>
+        <v>39.45559830513741</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>42.30639341804399</v>
+        <v>46.39846287846956</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>21.14852135055749</v>
+        <v>8.033302017404029</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>44.97632870006797</v>
+        <v>32.70287180713842</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>47.39042323599547</v>
+        <v>41.67290016250888</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>22.23543476557048</v>
+        <v>11.15477437765333</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>34.50574542388279</v>
+        <v>30.15486088974842</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>38.46449398158592</v>
+        <v>37.41316649279531</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>17.04265312679375</v>
+        <v>6.907583004226129</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>35.57419421144093</v>
+        <v>27.22246060489943</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>37.57295356485121</v>
+        <v>33.85864402157449</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>17.47931342377583</v>
+        <v>14.68653393475723</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>47.32663140902326</v>
+        <v>37.09402578599713</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>50.24933721877427</v>
+        <v>45.17573959540198</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>47.56732695573075</v>
+        <v>38.6954475984254</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>51.28330994437769</v>
+        <v>49.44152719094052</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>55.12328948419901</v>
+        <v>56.38559253749918</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>21.07045578592462</v>
+        <v>18.01239766525032</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>48.37606054874786</v>
+        <v>42.68445278912668</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>54.0701291915168</v>
+        <v>51.65597416506535</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>26.32364557747538</v>
+        <v>-8.970268076154522</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>26.37223294297282</v>
+        <v>10.01686919684733</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>30.31228634741488</v>
+        <v>17.26969118927025</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>24.84625649480795</v>
+        <v>-13.21651732266059</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>29.50711687286844</v>
+        <v>7.085433198670334</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>30.31875561015007</v>
+        <v>13.71570878133923</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>25.79602277940599</v>
+        <v>-5.447825308668708</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>34.89626324283373</v>
+        <v>16.94649318814868</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>35.01259773523655</v>
+        <v>25.02247350882408</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>26.89038633949331</v>
+        <v>18.53842766349863</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>27.5312832306676</v>
+        <v>29.27753307368357</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>26.95460241053088</v>
+        <v>36.21808001064846</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>28.2914832975689</v>
+        <v>-2.133640757291342</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>27.18546977355298</v>
+        <v>22.51896242231158</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>29.44372012239284</v>
+        <v>31.48754359316775</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>26.98801729854442</v>
+        <v>-4.392896045466269</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>31.00889798032368</v>
+        <v>14.6034906413222</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>30.64252537989614</v>
+        <v>21.85970848493708</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>24.78835072922434</v>
+        <v>-8.654664521424134</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>27.85051361685355</v>
+        <v>11.65504229879116</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>29.28151933019581</v>
+        <v>18.28964419635804</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>25.07985919391263</v>
+        <v>-0.8789109009318246</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>31.93102213390854</v>
+        <v>21.52477046510444</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>29.66864595694457</v>
+        <v>2.237459080780699</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>31.55065440607845</v>
+        <v>21.22585449788551</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>31.5486009954037</v>
+        <v>28.47848122940889</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>24.8716145060573</v>
+        <v>-2.005639092206021</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>32.02546218369427</v>
+        <v>18.29784167959872</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>32.48727708174385</v>
+        <v>24.92791068855206</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>25.78734888432486</v>
+        <v>5.764025262911108</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>36.92079667305274</v>
+        <v>28.15966670663591</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>35.80832418910744</v>
+        <v>36.23546879687672</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>33.89812451869111</v>
+        <v>29.75295688972756</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>35.62111763776974</v>
+        <v>40.49217816411578</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>35.6351538800562</v>
+        <v>47.43259359510739</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>29.9557046629908</v>
+        <v>9.079351382978988</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>27.37630529379401</v>
+        <v>33.733698704674</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>27.47691824609588</v>
+        <v>42.70196883411859</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>29.80491852507375</v>
+        <v>6.819045891511681</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>32.17473162208849</v>
+        <v>25.81669089311231</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>32.38381461113593</v>
+        <v>33.07271349079042</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>24.8446416955474</v>
+        <v>2.560429164678684</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>30.96722796397611</v>
+        <v>22.87166641702766</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>32.27897534997236</v>
+        <v>29.50606175177973</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>25.25737504615804</v>
+        <v>10.33715537427065</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>36.37745095206216</v>
+        <v>32.74215986164609</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>25.38334771538347</v>
+        <v>5.288764763805947</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>28.44898906210925</v>
+        <v>24.27778478566063</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>29.59465870317274</v>
+        <v>31.53061535261043</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>24.72555298489341</v>
+        <v>1.047842250202738</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>32.00130331081099</v>
+        <v>21.35202024167927</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>31.11200689720735</v>
+        <v>27.98234590611139</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>25.95482975330296</v>
+        <v>8.817534178018267</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>36.01776994183368</v>
+        <v>31.21379922843869</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>36.67252766245699</v>
+        <v>39.28979158614618</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>36.11414141992095</v>
+        <v>32.80751229388022</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>38.82382860136819</v>
+        <v>43.54671238069125</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>39.90585003313514</v>
+        <v>50.4872750995745</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>25.64461351392886</v>
+        <v>12.13327036059752</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>26.81087654019444</v>
+        <v>36.78860786400912</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>27.58355556042971</v>
+        <v>45.75702538705707</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>27.07687490731889</v>
+        <v>9.871980167046107</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>31.71792208884492</v>
+        <v>28.87024979113471</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>32.15568207045394</v>
+        <v>36.12647629328944</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>24.72376949152669</v>
+        <v>5.615539381962666</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>31.72116606353251</v>
+        <v>25.92747387687723</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>32.68793778988592</v>
+        <v>32.56212594376393</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>24.94989408101437</v>
+        <v>13.39229323969846</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>36.1914257468317</v>
+        <v>35.79792134905676</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>25.05922760623032</v>
+        <v>-2.46515302910063</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>26.57168602166411</v>
+        <v>16.5230997076568</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>30.22564758009275</v>
+        <v>23.77639084766736</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>24.71601955798713</v>
+        <v>-6.707717911544361</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>32.72732614937701</v>
+        <v>13.59547238794687</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>33.50327114436839</v>
+        <v>20.22631769809789</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>24.89498993961214</v>
+        <v>1.060963412150162</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>37.29435761963003</v>
+        <v>23.45639938069496</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>37.68172072177209</v>
+        <v>31.53282369006081</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>37.36545138899883</v>
+        <v>25.0487787785869</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>38.84744150872783</v>
+        <v>35.78788697754885</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>39.56583132778051</v>
+        <v>42.72877039403079</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>25.12017538094216</v>
+        <v>4.375617916414289</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>25.94417282541788</v>
+        <v>29.02997841098182</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>27.36646509654288</v>
+        <v>37.99895596354963</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>26.21008349917596</v>
+        <v>2.114863399774212</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>31.32463977592928</v>
+        <v>21.11236560529244</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>32.2156326231359</v>
+        <v>28.36905274883668</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>24.76775316973439</v>
+        <v>-2.143220351498709</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>30.86989618142885</v>
+        <v>18.16772631152003</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>32.31537066223694</v>
+        <v>24.80289810777072</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>24.87306134421532</v>
+        <v>5.632522731235102</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>35.22369699769277</v>
+        <v>28.03732161887354</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>31.82907582035042</v>
+        <v>29.60437286297634</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>30.05984638309283</v>
+        <v>23.11619087212546</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>32.94501834299967</v>
+        <v>33.86263545766576</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>33.68082231991774</v>
+        <v>40.80494137390053</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>26.99719007698459</v>
+        <v>2.440495742448096</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>30.59881640254974</v>
+        <v>27.1087912283964</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>31.83064790395307</v>
+        <v>36.07799857166322</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>28.1549366815197</v>
+        <v>5.563494862445172</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>31.31913719705698</v>
+        <v>24.56270489914323</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>32.12697523590081</v>
+        <v>31.82026065138644</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>24.78735034887552</v>
+        <v>1.311838142109426</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>27.1026120594022</v>
+        <v>21.62552793089253</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>28.81043838983192</v>
+        <v>28.26093569840782</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>25.16337288614906</v>
+        <v>9.091251130105778</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>31.28306222521112</v>
+        <v>31.49787227969319</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>35.14472446753168</v>
+        <v>39.57885371961356</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>30.50638675223868</v>
+        <v>33.09854004613555</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>34.34440284248252</v>
+        <v>43.84467092595185</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>34.99238128167474</v>
+        <v>50.78817776746303</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>26.77955236590249</v>
+        <v>12.41569819513041</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>30.18268787879615</v>
+        <v>37.08647906920362</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>32.41212161383725</v>
+        <v>46.0571794688168</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>36.44527792990134</v>
+        <v>40.8215840528344</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>35.73945245411315</v>
+        <v>34.33493583530651</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>37.73201656114</v>
+        <v>45.08149625705698</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>37.90661080636636</v>
+        <v>52.02367068300475</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>30.08283369940143</v>
+        <v>13.65770350354672</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>37.29365616445067</v>
+        <v>38.32774338352363</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>37.4307437630579</v>
+        <v>47.29663974072002</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>30.52286175873161</v>
+        <v>16.77705887432296</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>30.00683193903414</v>
+        <v>35.7775271598133</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>31.56347762313536</v>
+        <v>43.03488764970245</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>24.9708369299229</v>
+        <v>12.52855394834853</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>31.7630832716189</v>
+        <v>32.84377407245472</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>32.44900964574837</v>
+        <v>39.47897526728264</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>25.80406878587677</v>
+        <v>20.30893968788553</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>37.14002865905343</v>
+        <v>42.71688390646398</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>37.38557962141878</v>
+        <v>50.79768710840551</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>38.47716644663039</v>
+        <v>44.31890727860309</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>39.44873658301395</v>
+        <v>55.0651539492203</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>39.53476890204207</v>
+        <v>62.00852928149311</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>31.23516117985929</v>
+        <v>23.6345282318282</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>39.21617605509353</v>
+        <v>48.30705339762358</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>39.40182940263954</v>
+        <v>57.27744278852674</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>36.78099347949269</v>
+        <v>43.87753587576333</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>34.13347062029678</v>
+        <v>37.39112001954322</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>36.0258176990031</v>
+        <v>48.13765917953629</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>37.90115502564268</v>
+        <v>55.07998096307153</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>27.28615223480922</v>
+        <v>16.7132513157377</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>36.73656519433441</v>
+        <v>41.38428143145086</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>37.07469294857781</v>
+        <v>50.35332525667684</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>28.11874105182574</v>
+        <v>19.83166599134745</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>32.34663876333654</v>
+        <v>38.8327589014624</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>32.40057978346511</v>
+        <v>46.09032324868019</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>24.79925739712451</v>
+        <v>15.58533700289491</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>32.50612393485473</v>
+        <v>35.90125436360017</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>31.89132325352723</v>
+        <v>42.53671224829236</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>25.87106862767228</v>
+        <v>23.36575047666395</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>37.52378603635609</v>
+        <v>45.77431832361856</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>37.56078927138809</v>
+        <v>53.85531180653243</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>38.99649509544284</v>
+        <v>47.37676432880176</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>39.72669223258285</v>
+        <v>58.12298972471979</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>40.77828967174563</v>
+        <v>65.06651236044524</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>28.20199859594048</v>
+        <v>26.69174882345772</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>39.71839080676256</v>
+        <v>51.36526417950756</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>39.95728777347655</v>
+        <v>60.33580102779933</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>36.77608191106288</v>
+        <v>36.11736815480015</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>30.27702554423775</v>
+        <v>29.6291865850418</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>33.01400362731567</v>
+        <v>40.37563385418559</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>35.48154927397756</v>
+        <v>47.31827640061545</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>26.59936153092883</v>
+        <v>8.952399119509895</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>36.69311324313859</v>
+        <v>33.62245206340299</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>37.76184433958279</v>
+        <v>42.59205592895182</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>27.09834617488455</v>
+        <v>12.07442078170198</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>32.35077141164656</v>
+        <v>31.07474637349378</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>33.40038825715028</v>
+        <v>38.33277134287277</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>24.80798039461918</v>
+        <v>7.826448837892602</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>32.765909472072</v>
+        <v>28.14137850224541</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>32.97523482929581</v>
+        <v>34.77735609182071</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>25.02298986613529</v>
+        <v>15.60585144477989</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>37.7711114754355</v>
+        <v>38.01359015790661</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>37.9105912899173</v>
+        <v>46.09501564211348</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>37.84551690077446</v>
+        <v>39.61470239210814</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>38.9681887029937</v>
+        <v>50.36083594167087</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>39.85817693212869</v>
+        <v>57.30467931252304</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>26.67668486223635</v>
+        <v>18.93076799576773</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>38.21070887387848</v>
+        <v>43.6033062738037</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>39.96005496474391</v>
+        <v>52.57440318689294</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>29.83267337742281</v>
+        <v>-4.961389629649485</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>29.8502965960192</v>
+        <v>14.02872457841727</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>29.89027068104384</v>
+        <v>21.2824833418797</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>29.78863994642984</v>
+        <v>-9.206889921166631</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>29.85264035089959</v>
+        <v>11.09833301470019</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>29.86065371019938</v>
+        <v>17.72942603906484</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>29.81571639897123</v>
+        <v>-1.437174212083047</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>29.91099266915581</v>
+        <v>20.96053720317025</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>29.91656816774902</v>
+        <v>29.03757744196412</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>29.84549972408476</v>
+        <v>22.5527117939771</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>29.86115099375192</v>
+        <v>33.29346769563836</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>29.85806482482826</v>
+        <v>40.23484625738411</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>29.86567278263311</v>
+        <v>1.877777312422158</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>29.85126520154557</v>
+        <v>26.53391888528268</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>29.91781708245426</v>
+        <v>35.50373085169167</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>29.8045487938642</v>
+        <v>-0.3810398327199174</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>29.86335382905978</v>
+        <v>18.61832493957968</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>29.88950321960675</v>
+        <v>25.87547973715619</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>29.7851676231172</v>
+        <v>-4.642061153395044</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>29.80671246519779</v>
+        <v>15.67091910855595</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>29.81723657410109</v>
+        <v>22.30633870765667</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>29.79114607028202</v>
+        <v>3.134717039252113</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>29.84633390386096</v>
+        <v>25.54179247853495</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>29.85152152624192</v>
+        <v>6.247893475465279</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>29.88170759454727</v>
+        <v>25.23926599135564</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>29.90439079524724</v>
+        <v>32.49282945846642</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>29.79001284370408</v>
+        <v>2.005544634377433</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>29.89823698924175</v>
+        <v>22.31229801951895</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>29.90481616812706</v>
+        <v>28.94318442919371</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>29.81253107208309</v>
+        <v>9.776232805961175</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>29.96914475526031</v>
+        <v>32.17526733956061</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>29.96405808949701</v>
+        <v>40.25212931521833</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>29.96276565702319</v>
+        <v>33.76879778269586</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>30.00272699115402</v>
+        <v>44.50966956644675</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>29.99654280545349</v>
+        <v>51.45091660462845</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>29.9143747466098</v>
+        <v>13.09232602687007</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>29.98001803710706</v>
+        <v>37.7502119536739</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>29.98738549695488</v>
+        <v>46.71971283740959</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>29.83937369446748</v>
+        <v>10.83245853161714</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>29.87664173091627</v>
+        <v>29.83308178263713</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>29.89458227534249</v>
+        <v>37.09004129872608</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>29.78663007015799</v>
+        <v>6.574589337053002</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>29.8581207608262</v>
+        <v>26.88910023016127</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>29.88195768396878</v>
+        <v>33.5243132255722</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>29.78990915437066</v>
+        <v>14.35234024078125</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>29.92175511911195</v>
+        <v>36.76073897287472</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>29.82414061606859</v>
+        <v>9.299671569689398</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>29.86651143589047</v>
+        <v>28.2916687695041</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>29.90617730768874</v>
+        <v>35.54543608851816</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>29.78593722080794</v>
+        <v>5.059498644108093</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>29.89512036177793</v>
+        <v>25.36694933692616</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>29.90805101486712</v>
+        <v>31.99809242511947</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>29.81247435251979</v>
+        <v>12.83021439491779</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>29.97719128677559</v>
+        <v>35.2298726141081</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>29.98829516053526</v>
+        <v>43.30692487211161</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>29.97867584502927</v>
+        <v>36.82382598095887</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>30.00081273853633</v>
+        <v>47.56467657392272</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>30.02063007186106</v>
+        <v>54.50607091440259</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>29.84977934478405</v>
+        <v>16.14671771899896</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>29.9524416227183</v>
+        <v>40.80559394273348</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>29.98599197577448</v>
+        <v>49.77524223688476</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>29.82638335679232</v>
+        <v>13.88586541321036</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>29.87583502072175</v>
+        <v>32.88711336591871</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>29.89678093128936</v>
+        <v>40.14427680326924</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>29.78502608704902</v>
+        <v>9.630172416985264</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>29.85639430817299</v>
+        <v>29.94538064022936</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>29.88622837603475</v>
+        <v>36.58085039089747</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>29.80717487054609</v>
+        <v>17.40795097487569</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>29.92457188281355</v>
+        <v>39.8169734078723</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>29.80223081782671</v>
+        <v>1.544673084624836</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>29.82390612569302</v>
+        <v>20.53590289832937</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>29.87189367803169</v>
+        <v>27.79013085334032</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>29.78519494792042</v>
+        <v>-2.697142404611778</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>29.86724609743004</v>
+        <v>17.60932046618189</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>29.90218150553503</v>
+        <v>24.24098327486343</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>29.7883117245421</v>
+        <v>5.072562617066414</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>29.91255158966289</v>
+        <v>27.4713916466086</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>29.96220350497805</v>
+        <v>35.54887591465842</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>29.91226875507281</v>
+        <v>29.06401120062526</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>29.93104871703072</v>
+        <v>39.80476989100418</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>29.95882450510306</v>
+        <v>46.74648496790212</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>29.800830821021</v>
+        <v>8.387984139405379</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>29.88565772357773</v>
+        <v>33.04588323423025</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>29.98034192651341</v>
+        <v>42.01609162891452</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>29.80204360373605</v>
+        <v>6.127667608534811</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>29.85934182381996</v>
+        <v>25.12814804185416</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>29.88382336727512</v>
+        <v>32.38577218334478</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>29.78501354557101</v>
+        <v>1.87033145083706</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>29.84154044535994</v>
+        <v>22.18455171259098</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>29.87604671800493</v>
+        <v>28.82054126715184</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>29.78737180786997</v>
+        <v>9.647099109282639</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>29.88991978809106</v>
+        <v>32.05529221267102</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>29.85507967604521</v>
+        <v>33.62245501288635</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>29.83651747900341</v>
+        <v>27.13345277598581</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>29.88930610472001</v>
+        <v>37.88154872041048</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>29.90098303030035</v>
+        <v>44.82468640674949</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>29.80414614065668</v>
+        <v>6.454891238353415</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>29.83549831637183</v>
+        <v>31.12672691735657</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>29.85159630315173</v>
+        <v>40.09716495101475</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>29.84369018730678</v>
+        <v>9.574087736413507</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>29.88897722136052</v>
+        <v>28.57627606791903</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>29.92799942934516</v>
+        <v>35.83476904488157</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>29.78541228457874</v>
+        <v>5.323179468172729</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>29.81126198056739</v>
+        <v>25.64014303747206</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>29.83364047344957</v>
+        <v>32.27636870885328</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>29.79782797105639</v>
+        <v>13.10361725240285</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>29.87310940056501</v>
+        <v>35.51363269403612</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>29.9422804703318</v>
+        <v>43.59567454906244</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>29.86969408173966</v>
+        <v>37.11454159273876</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>29.94585193160162</v>
+        <v>47.86232384764548</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>29.95289418771915</v>
+        <v>54.80666262835098</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>29.81264145212333</v>
+        <v>16.42883261057364</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>29.86142461439384</v>
+        <v>41.1031539313849</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>29.89618592780738</v>
+        <v>50.07508528282278</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>29.9521829894892</v>
+        <v>44.84122326762974</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>29.91924445039776</v>
+        <v>38.35375498140218</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>29.97804262140895</v>
+        <v>49.10196678011619</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>29.99584713298045</v>
+        <v>56.04497295847239</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>29.85730667197918</v>
+        <v>17.67365605286557</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>29.95698671912197</v>
+        <v>42.34723633786996</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>29.95824104740219</v>
+        <v>51.31736334430809</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>29.88082881303579</v>
+        <v>20.78920831363735</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>29.91144310360781</v>
+        <v>39.79265505789067</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>29.96804666146641</v>
+        <v>47.05095273692405</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>29.79212340187873</v>
+        <v>16.54145221620604</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>29.92347985975892</v>
+        <v>36.85994632003064</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>29.95154828317121</v>
+        <v>43.49596537796504</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>29.82147489388061</v>
+        <v>24.32286287424848</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>30.019332725482</v>
+        <v>46.73420155632095</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>30.06202959495521</v>
+        <v>54.81606514043722</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>30.04949611868622</v>
+        <v>48.33646620507841</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>30.10369300519468</v>
+        <v>59.08436426854223</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>30.13073272767813</v>
+        <v>66.02857152226693</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>29.93667774010614</v>
+        <v>27.6492198387499</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>30.06773245699057</v>
+        <v>52.32528566314841</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>30.07902935413971</v>
+        <v>61.29690596478486</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>29.98176034375019</v>
+        <v>47.89764805299535</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>29.91794820114994</v>
+        <v>41.41041215427413</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>29.9416230407307</v>
+        <v>52.15860268854567</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>29.98189488014693</v>
+        <v>59.10175623875546</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>29.83839709864798</v>
+        <v>20.72967677483291</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>29.95161244125889</v>
+        <v>45.40424741081222</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>29.96607282767847</v>
+        <v>54.37452190198042</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>29.85776484328475</v>
+        <v>23.84428821185771</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>29.91666952730513</v>
+        <v>42.84835966010701</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>29.96621804702424</v>
+        <v>50.10686121311028</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>29.78707174259489</v>
+        <v>19.59870830860848</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>29.92544290375079</v>
+        <v>39.91789973651373</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>29.94419364723593</v>
+        <v>46.55417550749632</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>29.82736168662369</v>
+        <v>27.38014670677194</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>30.02815385661037</v>
+        <v>49.79210909614676</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>30.08449805148004</v>
+        <v>57.87416297614459</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>30.06656062032425</v>
+        <v>51.39479641944774</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>30.09978957447811</v>
+        <v>62.14267320527097</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>30.14791707292322</v>
+        <v>69.08702777665121</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>29.88733373509244</v>
+        <v>30.70691351516826</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>30.0564933074694</v>
+        <v>55.38396964538015</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>30.0826490288819</v>
+        <v>64.35573742082374</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>29.93812093043447</v>
+        <v>40.13639892532979</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>29.84796501414874</v>
+        <v>33.64739710955462</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>29.87326323295964</v>
+        <v>44.39549573808097</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>29.90093280654654</v>
+        <v>51.33897008998463</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>29.8067160100851</v>
+        <v>12.96774309817113</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>29.91593484266403</v>
+        <v>37.64133644190622</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>29.94115543997607</v>
+        <v>46.61217104432478</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>29.83148264474493</v>
+        <v>16.08596197711495</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>29.90848111057684</v>
+        <v>35.08926600614473</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>29.96625189066905</v>
+        <v>42.34822824400317</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>29.78707875146774</v>
+        <v>11.83873892358008</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>29.91617584763034</v>
+        <v>32.15694252541459</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>29.95402023549817</v>
+        <v>38.79373807588479</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>29.79345465778115</v>
+        <v>19.61916633038379</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>30.00183086973793</v>
+        <v>42.03029947813968</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>30.07147798635276</v>
+        <v>50.11278541746458</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>30.01952697022998</v>
+        <v>43.63165288535981</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>30.06110500244482</v>
+        <v>54.37943780995727</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>30.11685960885353</v>
+        <v>61.3241131552353</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>29.81546084019457</v>
+        <v>22.94485121966466</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>30.00601725728987</v>
+        <v>47.62093015102016</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>30.08056814217099</v>
+        <v>56.59325806260847</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>29.57341587994696</v>
+        <v>-4.787668119051769</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>29.63107614405076</v>
+        <v>14.20041598433341</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>29.8330569551143</v>
+        <v>21.45422415641997</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>29.4467434633256</v>
+        <v>-9.032483104342301</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>29.7230477756124</v>
+        <v>11.27065037224941</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>29.79395457654512</v>
+        <v>17.90185913275593</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>29.51681504132301</v>
+        <v>-1.26394124999069</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>30.01190543855748</v>
+        <v>21.13154414862118</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>30.01372327700081</v>
+        <v>29.20857382601378</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>29.64072820348231</v>
+        <v>22.7240272304091</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>29.69915219360094</v>
+        <v>33.46389437668518</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>29.67253571383328</v>
+        <v>40.40524126955438</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>29.6868633481558</v>
+        <v>2.051692739388503</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>29.64763086373005</v>
+        <v>26.70525548466572</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>29.84258562886694</v>
+        <v>35.67509252495029</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>29.53174188812043</v>
+        <v>-0.2080917021711421</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>29.76684453471782</v>
+        <v>18.78924247020746</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>29.88904455871213</v>
+        <v>26.04644662661895</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>29.4411600363811</v>
+        <v>-4.468426626717584</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>29.57336936302424</v>
+        <v>15.84246380815671</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>29.6390370507427</v>
+        <v>22.47799903393366</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>29.45828101035687</v>
+        <v>3.307177007334534</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>29.76864754397414</v>
+        <v>25.71202590848407</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>29.74940067905996</v>
+        <v>6.421124595474229</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>29.85465128119568</v>
+        <v>25.4104669120128</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>29.89006302558816</v>
+        <v>32.66407981703799</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>29.45594820895862</v>
+        <v>2.179460849081241</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>29.9098607958029</v>
+        <v>22.48412465540548</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>29.94715082797521</v>
+        <v>29.11512683739454</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>29.54085231642388</v>
+        <v>9.94897511639579</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>30.17982206099516</v>
+        <v>32.34578353593747</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>30.13473076383712</v>
+        <v>40.42263497825411</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>30.10721931275492</v>
+        <v>33.93962238412098</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>30.22339580817829</v>
+        <v>44.67960540777256</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>30.1997486086002</v>
+        <v>51.6208207871374</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>29.87443767378898</v>
+        <v>13.26575072631931</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>29.89387602249163</v>
+        <v>37.921057691138</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>29.89112533389623</v>
+        <v>46.89058368862584</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>29.68590332312325</v>
+        <v>11.00491596439565</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>29.82318955342867</v>
+        <v>30.00350852050906</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>29.87205039191076</v>
+        <v>37.26051742502978</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>29.44561724095153</v>
+        <v>6.747732954229836</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>29.76575317360176</v>
+        <v>27.0601539010354</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>29.86871760821636</v>
+        <v>33.69548255913401</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>29.4429660589706</v>
+        <v>14.52430924982662</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>30.05157594939897</v>
+        <v>36.93048134602589</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>29.52950287371981</v>
+        <v>9.472790245299624</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>29.73625213094464</v>
+        <v>28.46275721134771</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>29.84307048708172</v>
+        <v>35.71657395729471</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>29.44059071764455</v>
+        <v>5.233302264551643</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>29.89609581946123</v>
+        <v>25.53866333965971</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>29.90115284004005</v>
+        <v>32.16992218365999</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>29.51657112139126</v>
+        <v>13.00284411953772</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>30.16504351503418</v>
+        <v>35.40027619026773</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>30.18419416716117</v>
+        <v>43.47731790558555</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>30.16656537722317</v>
+        <v>36.99453792289398</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>30.29239943080416</v>
+        <v>47.73449975649771</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>30.34706007669088</v>
+        <v>54.67586243041364</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>29.58823603563581</v>
+        <v>16.3200297918321</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>29.83501449653783</v>
+        <v>40.97632699465782</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>29.91555275549224</v>
+        <v>49.94600039910063</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>29.57326943633548</v>
+        <v>14.05821028308742</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>29.81034903514306</v>
+        <v>33.05742750659306</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>29.88192824497792</v>
+        <v>40.3146403213409</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>29.43905937912138</v>
+        <v>9.803203321087384</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>29.78860477247063</v>
+        <v>30.11632155954783</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>29.90780138647013</v>
+        <v>36.75190695650792</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>29.50057951733684</v>
+        <v>17.5798072796033</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>30.04734454271886</v>
+        <v>39.9866030424871</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>29.47624108815716</v>
+        <v>1.718103528020951</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>29.56389016489037</v>
+        <v>20.7073031744809</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>29.75650697314321</v>
+        <v>27.96158051122928</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>29.43788576356106</v>
+        <v>-2.523026904238005</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>29.83832992463229</v>
+        <v>17.78134643802571</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>29.95195709361224</v>
+        <v>24.41312494518082</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>29.4508212081645</v>
+        <v>5.245504277277522</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>30.07444719042271</v>
+        <v>27.64210722653604</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>30.16072116847275</v>
+        <v>35.71958090967598</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>30.07834191029455</v>
+        <v>29.23503522293186</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>30.1525381332554</v>
+        <v>39.97490515414506</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>30.21271212478507</v>
+        <v>46.91658854609318</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>29.45411478927466</v>
+        <v>8.561608211042543</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>29.64422853385924</v>
+        <v>33.21692837193314</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>29.85328634785621</v>
+        <v>42.18716182542971</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>29.50426640776215</v>
+        <v>6.300324488487153</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>29.76957628519527</v>
+        <v>25.29877425879386</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>29.85314144497686</v>
+        <v>32.55644773250992</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>29.44052814039622</v>
+        <v>2.043674477578637</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>29.72564712795779</v>
+        <v>22.35580484301181</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>29.83198119695776</v>
+        <v>28.9919099865615</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>29.44718244418642</v>
+        <v>9.819267591589782</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>29.948600864639</v>
+        <v>32.22523409336213</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>29.79385397994321</v>
+        <v>33.79267782153761</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>29.69758861987505</v>
+        <v>27.30399481913185</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>29.99860458890051</v>
+        <v>38.05120160314675</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>30.07834750684224</v>
+        <v>44.99430764429269</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>29.54118553130161</v>
+        <v>6.628033398393999</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>29.73126021944631</v>
+        <v>31.29728949924413</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>29.80479226733932</v>
+        <v>40.26775258462487</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>29.61500451094931</v>
+        <v>9.747805306872696</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>29.78785821698179</v>
+        <v>28.74796294015062</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>29.93465228774307</v>
+        <v>36.00650505714827</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>29.44150972722686</v>
+        <v>5.497582858290915</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>29.55029122564315</v>
+        <v>25.81245642102238</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>29.63748047679476</v>
+        <v>32.44879755792329</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>29.46872875526287</v>
+        <v>13.27684593545974</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>29.76308447326335</v>
+        <v>35.68463474538794</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>29.99259127004278</v>
+        <v>43.76666575872787</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>29.76514243874948</v>
+        <v>37.28585153622453</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>30.18898090449288</v>
+        <v>48.0327446317217</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>30.21342549528659</v>
+        <v>54.97705162419879</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>29.54106883056701</v>
+        <v>16.60274302481014</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>29.72109436958983</v>
+        <v>41.27448462977588</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>29.8474794619999</v>
+        <v>50.2464408698537</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>30.16651312109445</v>
+        <v>45.01095504800071</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>30.00264034668222</v>
+        <v>38.52380588238645</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>30.27984244935642</v>
+        <v>49.27112851574827</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>30.38762492385752</v>
+        <v>56.21410305911149</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>29.7223046558063</v>
+        <v>17.84630717827986</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>30.15341978256975</v>
+        <v>42.51730775084116</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>30.1230844537003</v>
+        <v>51.48745984891571</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>29.7391890301617</v>
+        <v>20.96243512162141</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>29.80318262597968</v>
+        <v>39.96385107255833</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>30.05476489353991</v>
+        <v>47.22219792110536</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>29.45375375851213</v>
+        <v>16.71536463228063</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>29.90967850180347</v>
+        <v>37.03176861010297</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>30.05974408207331</v>
+        <v>43.66790316937772</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>29.50885038839784</v>
+        <v>24.49560053379082</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>30.24945361691929</v>
+        <v>46.90471248628228</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>30.52152767413006</v>
+        <v>54.98656525697743</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>30.27625958164985</v>
+        <v>48.5072849415842</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>30.61111132857493</v>
+        <v>59.25429384107917</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>30.74417851478003</v>
+        <v>66.19846931659697</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>29.82820710603747</v>
+        <v>27.82263915355793</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>30.48815954638613</v>
+        <v>52.49612512768579</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>30.50705139573477</v>
+        <v>61.46777035778462</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>30.2864553833905</v>
+        <v>48.0672670854442</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>29.97267274217173</v>
+        <v>41.58035027757421</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>30.085087797074</v>
+        <v>52.32765164713112</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>30.32273379521847</v>
+        <v>59.27077355477161</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>29.5971001765068</v>
+        <v>20.90221515500935</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>30.11086350463785</v>
+        <v>45.57420601973877</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>30.14295020518773</v>
+        <v>54.54450559935276</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>29.62990768490688</v>
+        <v>24.01740235995158</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>29.89108487703902</v>
+        <v>43.01944298046828</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>30.07803705331018</v>
+        <v>50.27799369214063</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>29.44322135752627</v>
+        <v>19.77250791492077</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>29.91160896558319</v>
+        <v>40.08960917818092</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>30.04778512469121</v>
+        <v>46.72600043410637</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>29.54601065998244</v>
+        <v>27.55277156490206</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>30.24435668698521</v>
+        <v>49.96250719060095</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>30.59761185160975</v>
+        <v>58.04455024796505</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>30.37227992381182</v>
+        <v>51.56550228093977</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>30.5660665453446</v>
+        <v>62.31248990366942</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>30.80954379643009</v>
+        <v>69.2568126891839</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>29.6687623658754</v>
+        <v>30.88021998775071</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>30.33149580754192</v>
+        <v>55.55469620865472</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>30.45091276175167</v>
+        <v>64.52648890953162</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>30.10034993967092</v>
+        <v>40.30633016149386</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>29.70696892164547</v>
+        <v>33.81764755581173</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>29.85769508409732</v>
+        <v>44.56485701955751</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>30.00645964894616</v>
+        <v>51.50829971027349</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>29.51213639382857</v>
+        <v>13.14059371962515</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>30.03539506143963</v>
+        <v>37.81160737906396</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>30.10094695816369</v>
+        <v>46.78246701832506</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>29.56378978959213</v>
+        <v>16.25938811085792</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>29.86335415498591</v>
+        <v>35.26066137838222</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>30.13973312200408</v>
+        <v>42.51967272973263</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>29.44335943461542</v>
+        <v>12.01285062773173</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>29.88678302050294</v>
+        <v>32.32896415363621</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>30.11478824857094</v>
+        <v>38.96587513181362</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>29.45452636278381</v>
+        <v>19.7921033414857</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>30.18282232633759</v>
+        <v>42.20100979398285</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>30.58088850374581</v>
+        <v>50.28348486859295</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>30.21432722065241</v>
+        <v>43.80267104511506</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>30.42764538668352</v>
+        <v>54.54956680640169</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>30.74656139652809</v>
+        <v>61.49421034755449</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>29.51282487921533</v>
+        <v>23.11846990888364</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>30.20241842811363</v>
+        <v>47.79196901832972</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>30.54606582289501</v>
+        <v>56.76432180345307</v>
       </c>
     </row>
   </sheetData>

--- a/yield_prediction/results/graph_descriptors/WLrbf_6/out_of_sample/additive/ranking_test3/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLrbf_6/out_of_sample/additive/ranking_test3/results.xlsx
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>-6.856161518528889</v>
+        <v>-6.856161518467271</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>12.13364637651103</v>
+        <v>12.13364637652194</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>19.38651017997654</v>
+        <v>19.38651017998564</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>-11.10109061908679</v>
+        <v>-11.10109061910145</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>9.20394098218026</v>
+        <v>9.203940982190378</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>15.83400672087192</v>
+        <v>15.83400672087203</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>-3.331433482263375</v>
+        <v>-3.331433482235067</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>19.06585776389352</v>
+        <v>19.06585776386726</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>27.14197523898929</v>
+        <v>27.14197523899805</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>20.65761622028936</v>
+        <v>20.65761622025002</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>31.39794662190184</v>
+        <v>31.39794662193345</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>38.33846949483745</v>
+        <v>38.33846949488066</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>-0.0172286470027494</v>
+        <v>-0.01722864701627813</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>24.6381478402368</v>
+        <v>24.63814784025499</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>33.60711975344338</v>
+        <v>33.60711975338199</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>-2.274388755342553</v>
+        <v>-2.274388755245237</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>16.72466937396507</v>
+        <v>16.72466937399964</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>23.98092891908164</v>
+        <v>23.98092891908869</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>-6.534838478389471</v>
+        <v>-6.53483847839345</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>13.77795011708247</v>
+        <v>13.77795011707531</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>20.41234208046342</v>
+        <v>20.41234208048445</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>1.241881245198446</v>
+        <v>1.241881245293943</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>23.64853619998553</v>
+        <v>23.64853620002589</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>4.352448036482546</v>
+        <v>4.352448036523473</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>23.34351418860536</v>
+        <v>23.34351418859149</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>30.5961826948884</v>
+        <v>30.59618269487385</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>0.1106703097108301</v>
+        <v>0.1106703097116259</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>20.41723230455421</v>
+        <v>20.4172323045741</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>27.04709142309173</v>
+        <v>27.04709142307502</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>7.881299856539616</v>
+        <v>7.881299856560648</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>30.27991416773955</v>
+        <v>30.27991416778491</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>38.3558533787251</v>
+        <v>38.35585337873886</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>31.8730284579201</v>
+        <v>31.87302845792454</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>42.61347472885973</v>
+        <v>42.61347472887667</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>49.5538660811992</v>
+        <v>49.55386608120796</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>11.19664636885227</v>
+        <v>11.19664636890309</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>35.85376715023062</v>
+        <v>35.85376715023119</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>44.82242798006905</v>
+        <v>44.8224279800653</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>8.938435973596942</v>
+        <v>8.938435973649693</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>27.93875253072122</v>
+        <v>27.93875253073736</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>35.19481679368948</v>
+        <v>35.19481679371472</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>4.681138300108618</v>
+        <v>4.68113830014136</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>24.99545747103003</v>
+        <v>24.99545747105299</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>31.62964282523786</v>
+        <v>31.62964282527264</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>12.45883068213277</v>
+        <v>12.45883068219849</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>34.86680887619684</v>
+        <v>34.86680887627506</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>7.404005633505793</v>
+        <v>7.404005633540923</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>26.3956964497221</v>
+        <v>26.39569644974654</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>33.64856879032811</v>
+        <v>33.64856879032891</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>3.164403750768091</v>
+        <v>3.164403750828118</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>23.47166303235918</v>
+        <v>23.47166303237828</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>30.10177880502465</v>
+        <v>30.10177880505558</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>10.93506086793468</v>
+        <v>10.93506086799028</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>33.33429884454199</v>
+        <v>33.33429884457576</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>41.41042832113044</v>
+        <v>41.4104283211858</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>34.92783605594445</v>
+        <v>34.92783605598845</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>45.6682611356905</v>
+        <v>45.66826113569766</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>52.60879977989612</v>
+        <v>52.60879977988805</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>14.25081747282821</v>
+        <v>14.25081747286186</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>38.90892852795855</v>
+        <v>38.9089285279822</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>47.87773674952973</v>
+        <v>47.87773674954497</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>11.99162233164725</v>
+        <v>11.99162233166544</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>30.9925635709169</v>
+        <v>30.9925635709451</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>38.24883173733792</v>
+        <v>38.24883173735202</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>7.736500784906301</v>
+        <v>7.736500784966214</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>28.05151726525026</v>
+        <v>28.05151726533564</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>34.68595935015003</v>
+        <v>34.68595935019948</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>15.51422081221518</v>
+        <v>15.51422081218084</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>37.92282268708072</v>
+        <v>37.92282268713143</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>-0.3504796664330989</v>
+        <v>-0.3504796664039951</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>18.64044380346639</v>
+        <v>18.64044380345252</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>25.89377675989079</v>
+        <v>25.89377675987874</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>-4.591724086953146</v>
+        <v>-4.591724086908467</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>15.71454741681373</v>
+        <v>15.71454741684011</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>22.34518289014023</v>
+        <v>22.34518289014159</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>3.177922353375724</v>
+        <v>3.177922353381408</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>25.57633118153297</v>
+        <v>25.57633118152205</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>33.65289264912951</v>
+        <v>33.65289264915043</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>27.16853460032531</v>
+        <v>27.16853460037794</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>37.90886779084053</v>
+        <v>37.90886779085224</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>44.84972715346817</v>
+        <v>44.84972715347806</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>6.492597171945935</v>
+        <v>6.492597171965148</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>31.14973114034376</v>
+        <v>31.14973114032819</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>40.11909944216575</v>
+        <v>40.11909944215108</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>4.233937792585952</v>
+        <v>4.233937792564351</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>23.2341115518243</v>
+        <v>23.23411155183431</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>30.49084040222988</v>
+        <v>30.49084040225876</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>-0.0228268898908901</v>
+        <v>-0.02282688987827086</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>20.291201672635</v>
+        <v>20.29120167266149</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>26.92616354188749</v>
+        <v>26.92616354185214</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>7.753882290269079</v>
+        <v>7.753882290283972</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>30.16165487668377</v>
+        <v>30.16165487671208</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>31.72827567969421</v>
+        <v>31.72827567969796</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>25.23978028208819</v>
+        <v>25.23978028205295</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>35.98745044568147</v>
+        <v>35.98745044563532</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>42.92973217776773</v>
+        <v>42.92973217774841</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>4.561308512483496</v>
+        <v>4.561308512485315</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>29.23237852707121</v>
+        <v>29.23237852703005</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>38.20197629856557</v>
+        <v>38.20197629853214</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>7.682471936197434</v>
+        <v>7.68247193619516</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>26.6843535648801</v>
+        <v>26.68435356490466</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>33.94195134180802</v>
+        <v>33.94195134180484</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>3.432134782810184</v>
+        <v>3.43213478281405</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>23.74890659182279</v>
+        <v>23.74890659183029</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>30.38410468490725</v>
+        <v>30.38410468492384</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>11.21251411483707</v>
+        <v>11.21251411480546</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>33.62210900087177</v>
+        <v>33.62210900088814</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>41.70322785205497</v>
+        <v>41.70322785206679</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>35.22260127908658</v>
+        <v>35.22260127908623</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>45.9699577505703</v>
+        <v>45.96995775049265</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>52.91344063617078</v>
+        <v>52.9134406361693</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>14.53698215607836</v>
+        <v>14.53698215604823</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>39.21053784941762</v>
+        <v>39.21053784937385</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>48.18162889108805</v>
+        <v>48.18162889109249</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>42.94637011541647</v>
+        <v>42.94637011541261</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>36.45940865107502</v>
+        <v>36.45940865113516</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>47.20719465593936</v>
+        <v>47.20719465592924</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>54.14934488300344</v>
+        <v>54.14934488302526</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>15.77939954278145</v>
+        <v>15.77939954277725</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>40.45221410379804</v>
+        <v>40.45221410381521</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>49.42150084738728</v>
+        <v>49.42150084733987</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>18.8969188362845</v>
+        <v>18.89691883625006</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>37.90005882674393</v>
+        <v>37.9000588267138</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>45.1574613053175</v>
+        <v>45.15746130528828</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>14.64973377736158</v>
+        <v>14.64973377736044</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>34.96803606514538</v>
+        <v>34.96803606518995</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>41.6030275392535</v>
+        <v>41.60302753925191</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>22.43108593068314</v>
+        <v>22.43108593073044</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>44.84200400349937</v>
+        <v>44.84200400354302</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>52.92294458282993</v>
+        <v>52.92294458287722</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>46.44385201355044</v>
+        <v>46.4438520136049</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>57.19132428059663</v>
+        <v>57.19132428056037</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>64.13467564217888</v>
+        <v>64.13467564218968</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>25.75669555836715</v>
+        <v>25.75669555839</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>50.43199569577916</v>
+        <v>50.43199569575813</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>59.40277568706085</v>
+        <v>59.40277568702948</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>46.00257425995392</v>
+        <v>46.00257425998257</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>39.51584519759444</v>
+        <v>39.51584519763082</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>50.26360993751746</v>
+        <v>50.26360993755225</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>57.20590752616602</v>
+        <v>57.20590752622047</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>18.8351996500943</v>
+        <v>18.83519965009237</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>43.50900453877455</v>
+        <v>43.50900453879422</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>52.47843874872626</v>
+        <v>52.47843874875775</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>21.95177816023579</v>
+        <v>21.95177816026899</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>40.95554283510978</v>
+        <v>40.95554283505612</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>48.21314916990173</v>
+        <v>48.21314916992333</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>17.7067692239292</v>
+        <v>17.70676922391909</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>38.02576881534594</v>
+        <v>38.02576881540972</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>44.66101697787769</v>
+        <v>44.6610169779417</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>25.488149108509</v>
+        <v>25.48814910852821</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>47.89969086876988</v>
+        <v>47.89969086881274</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>55.98082172736656</v>
+        <v>55.98082172738452</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>49.50196155041135</v>
+        <v>49.50196155042534</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>60.2494125396131</v>
+        <v>60.24941253960822</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>67.19291120857952</v>
+        <v>67.19291120856735</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>28.8141685696935</v>
+        <v>28.81416856971817</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>53.49045898930854</v>
+        <v>53.49045898927307</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>62.46138643607765</v>
+        <v>62.4613864360249</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>38.24183849796873</v>
+        <v>38.24183849797794</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>31.75334355770849</v>
+        <v>31.75334355772634</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>42.50101640551532</v>
+        <v>42.50101640552816</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>49.44363477794047</v>
+        <v>49.44363477793604</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>11.07377933239161</v>
+        <v>11.07377933237263</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>35.74660697097681</v>
+        <v>35.74660697097761</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>44.71660127183839</v>
+        <v>44.71660127181053</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>14.19396520150679</v>
+        <v>14.19396520154067</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>33.19696249665105</v>
+        <v>33.1969624966265</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>40.455029496169</v>
+        <v>40.45502949615832</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>9.94731314073886</v>
+        <v>9.94731314074534</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>30.26532494980268</v>
+        <v>30.2653249498012</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>36.90109287218149</v>
+        <v>36.90109287220844</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>17.72768208583898</v>
+        <v>17.72768208588923</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>40.13839464599027</v>
+        <v>40.13839464597527</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>48.21995754498289</v>
+        <v>48.21995754503632</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>41.7393314318582</v>
+        <v>41.73933143182637</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>52.48669057314407</v>
+        <v>52.48669057310349</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>59.43050999805985</v>
+        <v>59.43050999803791</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>21.05261964352599</v>
+        <v>21.0526196435452</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>45.72793290681602</v>
+        <v>45.72793290679772</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>54.69942046907306</v>
+        <v>54.69942046908238</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>-9.891629871044866</v>
+        <v>-9.891629871002802</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>9.095268152008206</v>
+        <v>9.095268152070734</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>16.3483708553531</v>
+        <v>16.34837085538971</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>-14.13709862487405</v>
+        <v>-14.13709862488724</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>6.16479961807693</v>
+        <v>6.164799618066585</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>12.79528112043829</v>
+        <v>12.79528112049366</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>-6.368858159646148</v>
+        <v>-6.368858159624889</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>16.02521332057643</v>
+        <v>16.02521332057905</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>24.10148202990002</v>
+        <v>24.10148202993219</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>17.61745752479556</v>
+        <v>17.61745752479749</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>28.35650895554545</v>
+        <v>28.35650895554466</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>35.29727784291913</v>
+        <v>35.29727784290037</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>-3.053726310215662</v>
+        <v>-3.053726310188491</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>21.59839347702541</v>
+        <v>21.59839347701029</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>30.5673992616778</v>
+        <v>30.56739926168405</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>-5.313358644882666</v>
+        <v>-5.313358644925753</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>13.68278893097022</v>
+        <v>13.6827889309476</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>20.93928747503356</v>
+        <v>20.93928747502003</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>-9.574346491267871</v>
+        <v>-9.574346491245134</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>10.73530824955117</v>
+        <v>10.73530824955754</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>17.37011602335213</v>
+        <v>17.37011602334303</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>-1.79904456333065</v>
+        <v>-1.799044563328831</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>20.60438990203898</v>
+        <v>20.60438990206979</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>1.316323233535858</v>
+        <v>1.316323233552911</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>20.30447938876546</v>
+        <v>20.30447938877706</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>27.55738684162361</v>
+        <v>27.5573868416052</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>-2.925994456825602</v>
+        <v>-2.925994456759209</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>17.37743402070771</v>
+        <v>17.37743402067713</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>24.00770896091524</v>
+        <v>24.00770896095856</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>4.843218357010645</v>
+        <v>4.843218357054301</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>27.23861277331537</v>
+        <v>27.23861277338699</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>35.31470326270335</v>
+        <v>35.31470326275792</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>28.832212679171</v>
+        <v>28.83221267910017</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>39.57137997900679</v>
+        <v>39.5713799790185</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>46.51201735987536</v>
+        <v>46.51201735982954</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>8.159491766827731</v>
+        <v>8.159491766855925</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>32.8133556750289</v>
+        <v>32.81335567506505</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>41.78205043334685</v>
+        <v>41.78205043335754</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>5.898809197463383</v>
+        <v>5.898809197480663</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>24.8962150763889</v>
+        <v>24.8962150763723</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>32.15251838503787</v>
+        <v>32.15251838505696</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>1.640973090251467</v>
+        <v>1.640973090249421</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>21.95215824756008</v>
+        <v>21.95215824755451</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>28.58675947011705</v>
+        <v>28.58675947010602</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>9.417247614995862</v>
+        <v>9.417247614997112</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>31.82200519096523</v>
+        <v>31.82200519099536</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>4.36770060491563</v>
+        <v>4.367700604945529</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>23.35648137091244</v>
+        <v>23.35648137092847</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>30.60959265461088</v>
+        <v>30.60959265460372</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>0.127558564571931</v>
+        <v>0.127558564723703</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>20.43168426862428</v>
+        <v>20.43168426868431</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>27.0622158560492</v>
+        <v>27.06221585616902</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>7.896798955837088</v>
+        <v>7.896798955918715</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>30.29281698433261</v>
+        <v>30.29281698437217</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>38.36909773755701</v>
+        <v>38.36909773762955</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>31.88683976053665</v>
+        <v>31.88683976058758</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>42.62598587534865</v>
+        <v>42.62598587540958</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>49.56677054309341</v>
+        <v>49.56677054307568</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>11.21348241209126</v>
+        <v>11.21348241222313</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>35.86833650486392</v>
+        <v>35.86833650489189</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>44.83717865934955</v>
+        <v>44.83717865942845</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>8.951815149668395</v>
+        <v>8.951815149655889</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>27.94984565695973</v>
+        <v>27.9498456569761</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>35.20635286561969</v>
+        <v>35.20635286567881</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>4.696154974822324</v>
+        <v>4.696154974851314</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>25.00803738112177</v>
+        <v>25.00803738119805</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>31.64289532764861</v>
+        <v>31.64289532769942</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>12.47245715187569</v>
+        <v>12.47245715188547</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>34.87783835529535</v>
+        <v>34.87783835535288</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>-3.386425580082228</v>
+        <v>-3.386425580071315</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>15.6015879176058</v>
+        <v>15.60158791755658</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>22.8551597592749</v>
+        <v>22.85515975927411</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>-7.628209978308629</v>
+        <v>-7.628209978258607</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>12.67492805643315</v>
+        <v>12.6749280564552</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>19.3059792700044</v>
+        <v>19.30597927013355</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>0.1400198004820403</v>
+        <v>0.1400198005241045</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>22.53520876225616</v>
+        <v>22.53520876225446</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>30.6119214528876</v>
+        <v>30.61192145292023</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>24.12789787104748</v>
+        <v>24.127897871041</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>34.86695209366758</v>
+        <v>34.86695209368474</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>41.8080574600524</v>
+        <v>41.80805746013868</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>3.455621578507138</v>
+        <v>3.455621578597178</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>28.10949868639114</v>
+        <v>28.10949868640569</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>37.07890085575718</v>
+        <v>37.07890085574786</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>1.194490042588772</v>
+        <v>1.194490042563647</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>20.19175314791847</v>
+        <v>20.19175314791824</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>27.44872098283441</v>
+        <v>27.44872098280712</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>-3.062813087679839</v>
+        <v>-3.062813087708829</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>17.24808150945603</v>
+        <v>17.24808150946604</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>23.88345916559581</v>
+        <v>23.88345916558513</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>4.712478306423808</v>
+        <v>4.712478306423012</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>27.11703030325555</v>
+        <v>27.11703030328363</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>28.68428069142238</v>
+        <v>28.68428069142135</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>22.19612005540728</v>
+        <v>22.1961200554166</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>32.94251067529433</v>
+        <v>32.94251067530888</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>39.88503861916308</v>
+        <v>39.88503861922925</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>1.521309426657584</v>
+        <v>1.521309426701126</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>26.18912175262244</v>
+        <v>26.18912175264507</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>35.15875358310996</v>
+        <v>35.15875358310961</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>4.643759225238686</v>
+        <v>4.64375922525733</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>23.64273017163851</v>
+        <v>23.64273017161895</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>30.90056656654156</v>
+        <v>30.90056656654247</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>0.3928830841131266</v>
+        <v>0.3928830840976651</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>20.70652079556988</v>
+        <v>20.70652079557465</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>27.34213440639713</v>
+        <v>27.34213440638007</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>8.171844391538801</v>
+        <v>8.171844391574499</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>30.57821866921632</v>
+        <v>30.57821866922041</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>38.65948844188119</v>
+        <v>38.65948844187892</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>32.1791960314664</v>
+        <v>32.17919603145094</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>42.92527295088178</v>
+        <v>42.92527295092475</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>49.86900176895381</v>
+        <v>49.86900176896359</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>11.49723865996589</v>
+        <v>11.49723865997908</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>36.16753637451984</v>
+        <v>36.16753637449278</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>45.13866123402454</v>
+        <v>45.13866123402886</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>39.90171778429681</v>
+        <v>39.90171778428964</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>33.41509090497539</v>
+        <v>33.4150909049556</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>44.16159736588861</v>
+        <v>44.16159736587952</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>51.10399381912657</v>
+        <v>51.10399381915727</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>12.73874308260122</v>
+        <v>12.73874308259099</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>37.40829978149975</v>
+        <v>37.40829978158138</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>46.37762064087008</v>
+        <v>46.37762064087531</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>15.85754915130054</v>
+        <v>15.85754915132475</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>34.85777833447617</v>
+        <v>34.85777833446036</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>42.11541947767876</v>
+        <v>42.11541947766727</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>11.60982479390885</v>
+        <v>11.60982479392988</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>31.92499282531265</v>
+        <v>31.92499282535551</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>38.560399874891</v>
+        <v>38.56039987493887</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>19.38975886123444</v>
+        <v>19.38975886121262</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>41.79745619689356</v>
+        <v>41.79745619689265</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>49.87854774195057</v>
+        <v>49.8785477419849</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>43.399789158526</v>
+        <v>43.39978915853521</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>54.14598187361491</v>
+        <v>54.14598187368961</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>61.08957918193698</v>
+        <v>61.08957918200417</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>22.71629460017676</v>
+        <v>22.71629460016061</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>47.38833658514</v>
+        <v>47.38833658511635</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>56.35915045100387</v>
+        <v>56.35915045102502</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>42.95774128060884</v>
+        <v>42.95774128064954</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>36.47134675444454</v>
+        <v>36.47134675453287</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>47.21783195650369</v>
+        <v>47.21783195650175</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>54.16037576589258</v>
+        <v>54.16037576594067</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>15.79436255080418</v>
+        <v>15.79436255086239</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>40.46490948839482</v>
+        <v>40.46490948846645</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>49.43437781829721</v>
+        <v>49.4343778183661</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>18.91222794059695</v>
+        <v>18.91222794063174</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>37.91308175460972</v>
+        <v>37.91308175466611</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>45.17092675071353</v>
+        <v>45.17092675074446</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>14.66667951188458</v>
+        <v>14.6666795119711</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>34.98254478640717</v>
+        <v>34.98254478643639</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>41.61820851771415</v>
+        <v>41.6182085178234</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>22.44664131728542</v>
+        <v>22.4466413173185</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>44.85496228702368</v>
+        <v>44.85496228702743</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>52.93624410958807</v>
+        <v>52.93624410962127</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>46.45771787022477</v>
+        <v>46.45771787022557</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>57.20388931331979</v>
+        <v>57.20388931334946</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>64.14763392362659</v>
+        <v>64.14763392361101</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>25.77358684364856</v>
+        <v>25.77358684370506</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>50.44661902204359</v>
+        <v>50.44661902201256</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>59.41758034765417</v>
+        <v>59.41758034765598</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>35.1973652232947</v>
+        <v>35.19736522333551</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>28.70920499832494</v>
+        <v>28.70920499835154</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>39.45559830513741</v>
+        <v>39.45559830522586</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>46.39846287846956</v>
+        <v>46.39846287854846</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>8.033302017404029</v>
+        <v>8.033302017432337</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>32.70287180713842</v>
+        <v>32.70287180711284</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>41.67290016250888</v>
+        <v>41.67290016256516</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>11.15477437765333</v>
+        <v>11.15477437768812</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>30.15486088974842</v>
+        <v>30.15486088977866</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>37.41316649279531</v>
+        <v>37.4131664927819</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>6.907583004226129</v>
+        <v>6.90758300421351</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>27.22246060489943</v>
+        <v>27.22246060498867</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>33.85864402157449</v>
+        <v>33.85864402154391</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>14.68653393475723</v>
+        <v>14.68653393478838</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>37.09402578599713</v>
+        <v>37.09402578604079</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>45.17573959540198</v>
+        <v>45.1757395954404</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>38.6954475984254</v>
+        <v>38.69544759846383</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>49.44152719094052</v>
+        <v>49.44152719094984</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>56.38559253749918</v>
+        <v>56.38559253757637</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>18.01239766525032</v>
+        <v>18.01239766527681</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>42.68445278912668</v>
+        <v>42.68445278915021</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>51.65597416506535</v>
+        <v>51.6559741650118</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>-8.970268076154522</v>
+        <v>-8.970268076181352</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>10.01686919684733</v>
+        <v>10.01686919685813</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>17.26969118927025</v>
+        <v>17.26969118925877</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>-13.21651732266059</v>
+        <v>-13.21651732270106</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>7.085433198670334</v>
+        <v>7.08543319867022</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>13.71570878133923</v>
+        <v>13.71570878135163</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>-5.447825308668708</v>
+        <v>-5.447825308624939</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>16.94649318814868</v>
+        <v>16.94649318816403</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>25.02247350882408</v>
+        <v>25.02247350884807</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>18.53842766349863</v>
+        <v>18.53842766350681</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>29.27753307368357</v>
+        <v>29.2775330736863</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>36.21808001064846</v>
+        <v>36.21808001065688</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>-2.133640757291342</v>
+        <v>-2.133640757206418</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>22.51896242231158</v>
+        <v>22.51896242233159</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>31.48754359316775</v>
+        <v>31.4875435931873</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>-4.392896045466269</v>
+        <v>-4.392896045499011</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>14.6034906413222</v>
+        <v>14.60349064132675</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>21.85970848493708</v>
+        <v>21.85970848492775</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>-8.654664521424134</v>
+        <v>-8.654664521447554</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>11.65504229879116</v>
+        <v>11.65504229880742</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>18.28964419635804</v>
+        <v>18.28964419632496</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>-0.8789109009318246</v>
+        <v>-0.8789109009286413</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>21.52477046510444</v>
+        <v>21.52477046514344</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>2.237459080780699</v>
+        <v>2.23745908079923</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>21.22585449788551</v>
+        <v>21.22585449783537</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>28.47848122940889</v>
+        <v>28.4784812294206</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>-2.005639092206021</v>
+        <v>-2.005639092176917</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>18.29784167959872</v>
+        <v>18.29784167959213</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>24.92791068855206</v>
+        <v>24.9279106885648</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>5.764025262911108</v>
+        <v>5.76402526283994</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>28.15966670663591</v>
+        <v>28.1596667065902</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>36.23546879687672</v>
+        <v>36.23546879686467</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>29.75295688972756</v>
+        <v>29.75295688967993</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>40.49217816411578</v>
+        <v>40.49217816412067</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>47.43259359510739</v>
+        <v>47.43259359511865</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>9.079351382978988</v>
+        <v>9.079351382965232</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>33.733698704674</v>
+        <v>33.73369870469639</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>42.70196883411859</v>
+        <v>42.70196883409938</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>6.819045891511681</v>
+        <v>6.819045891533282</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>25.81669089311231</v>
+        <v>25.8166908931371</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>33.07271349079042</v>
+        <v>33.07271349080838</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>2.560429164678684</v>
+        <v>2.560429164675956</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>22.87166641702766</v>
+        <v>22.87166641703107</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>29.50606175177973</v>
+        <v>29.50606175184408</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>10.33715537427065</v>
+        <v>10.33715537428941</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>32.74215986164609</v>
+        <v>32.742159861696</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>5.288764763805947</v>
+        <v>5.288764763855287</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>24.27778478566063</v>
+        <v>24.27778478568951</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>31.53061535261043</v>
+        <v>31.53061535264249</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>1.047842250202738</v>
+        <v>1.047842250255716</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>21.35202024167927</v>
+        <v>21.35202024169189</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>27.98234590611139</v>
+        <v>27.98234590615744</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>8.817534178018267</v>
+        <v>8.817534178057603</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>31.21379922843869</v>
+        <v>31.21379922846439</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>39.28979158614618</v>
+        <v>39.28979158615709</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>32.80751229388022</v>
+        <v>32.80751229390376</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>43.54671238069125</v>
+        <v>43.54671238068318</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>50.4872750995745</v>
+        <v>50.48727509960622</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>12.13327036059752</v>
+        <v>12.13327036057342</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>36.78860786400912</v>
+        <v>36.7886078639882</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>45.75702538705707</v>
+        <v>45.75702538704275</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>9.871980167046107</v>
+        <v>9.871980167059977</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>28.87024979113471</v>
+        <v>28.87024979113994</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>36.12647629328944</v>
+        <v>36.12647629333469</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>5.615539381962666</v>
+        <v>5.615539382008141</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>25.92747387687723</v>
+        <v>25.92747387687428</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>32.56212594376393</v>
+        <v>32.56212594377121</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>13.39229323969846</v>
+        <v>13.39229323973359</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>35.79792134905676</v>
+        <v>35.79792134911827</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>-2.46515302910063</v>
+        <v>-2.465153029036511</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>16.5230997076568</v>
+        <v>16.5230997076468</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>23.77639084766736</v>
+        <v>23.77639084772534</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>-6.707717911544361</v>
+        <v>-6.707717911531628</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>13.59547238794687</v>
+        <v>13.59547238797143</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>20.22631769809789</v>
+        <v>20.22631769809221</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>1.060963412150162</v>
+        <v>1.060963412121627</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>23.45639938069496</v>
+        <v>23.45639938069838</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>31.53282369006081</v>
+        <v>31.53282369003921</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>25.0487787785869</v>
+        <v>25.04877877860486</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>35.78788697754885</v>
+        <v>35.78788697751133</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>42.72877039403079</v>
+        <v>42.72877039404671</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>4.375617916414289</v>
+        <v>4.375617916356308</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>29.02997841098182</v>
+        <v>29.02997841096817</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>37.99895596354963</v>
+        <v>37.99895596356282</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>2.114863399774212</v>
+        <v>2.114863399750792</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>21.11236560529244</v>
+        <v>21.1123656052414</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>28.36905274883668</v>
+        <v>28.36905274882998</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>-2.143220351498709</v>
+        <v>-2.143220351488704</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>18.16772631152003</v>
+        <v>18.16772631154436</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>24.80289810777072</v>
+        <v>24.80289810776799</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>5.632522731235102</v>
+        <v>5.632522731290241</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>28.03732161887354</v>
+        <v>28.03732161889321</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>29.60437286297634</v>
+        <v>29.60437286302602</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>23.11619087212546</v>
+        <v>23.11619087215536</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>33.86263545766576</v>
+        <v>33.86263545764405</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>40.80494137390053</v>
+        <v>40.80494137387677</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>2.440495742448096</v>
+        <v>2.440495742445027</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>27.1087912283964</v>
+        <v>27.10879122847996</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>36.07799857166322</v>
+        <v>36.07799857167311</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>5.563494862445172</v>
+        <v>5.563494862450742</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>24.56270489914323</v>
+        <v>24.56270489911492</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>31.82026065138644</v>
+        <v>31.82026065138519</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>1.311838142109426</v>
+        <v>1.311838142144442</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>21.62552793089253</v>
+        <v>21.6255279309271</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>28.26093569840782</v>
+        <v>28.26093569842374</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>9.091251130105778</v>
+        <v>9.091251130101572</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>31.49787227969319</v>
+        <v>31.49787227972354</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>39.57885371961356</v>
+        <v>39.57885371958344</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>33.09854004613555</v>
+        <v>33.09854004608815</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>43.84467092595185</v>
+        <v>43.84467092596651</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>50.78817776746303</v>
+        <v>50.78817776749929</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>12.41569819513041</v>
+        <v>12.41569819509494</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>37.08647906920362</v>
+        <v>37.0864790692309</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>46.0571794688168</v>
+        <v>46.0571794688484</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>40.8215840528344</v>
+        <v>40.82158405286293</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>34.33493583530651</v>
+        <v>34.33493583534926</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>45.08149625705698</v>
+        <v>45.08149625703788</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>52.02367068300475</v>
+        <v>52.02367068301612</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>13.65770350354672</v>
+        <v>13.65770350358889</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>38.32774338352363</v>
+        <v>38.32774338353352</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>47.29663974072002</v>
+        <v>47.29663974069877</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>16.77705887432296</v>
+        <v>16.77705887438174</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>35.7775271598133</v>
+        <v>35.7775271598382</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>43.03488764970245</v>
+        <v>43.03488764973372</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>12.52855394834853</v>
+        <v>12.52855394828589</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>32.84377407245472</v>
+        <v>32.84377407248826</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>39.47897526728264</v>
+        <v>39.47897526730435</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>20.30893968788553</v>
+        <v>20.30893968795329</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>42.71688390646398</v>
+        <v>42.7168839064833</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>50.79768710840551</v>
+        <v>50.79768710845872</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>44.31890727860309</v>
+        <v>44.31890727855659</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>55.0651539492203</v>
+        <v>55.06515394923258</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>62.00852928149311</v>
+        <v>62.0085292815304</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>23.6345282318282</v>
+        <v>23.63452823182161</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>48.30705339762358</v>
+        <v>48.30705339759606</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>57.27744278852674</v>
+        <v>57.27744278852663</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>43.87753587576333</v>
+        <v>43.87753587578914</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>37.39112001954322</v>
+        <v>37.391120019563</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>48.13765917953629</v>
+        <v>48.13765917956539</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>55.07998096307153</v>
+        <v>55.07998096308961</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>16.7132513157377</v>
+        <v>16.71325131578351</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>41.38428143145086</v>
+        <v>41.38428143148121</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>50.35332525667684</v>
+        <v>50.35332525672288</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>19.83166599134745</v>
+        <v>19.83166599144034</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>38.8327589014624</v>
+        <v>38.83275890150412</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>46.09032324868019</v>
+        <v>46.09032324872896</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>15.58533700289491</v>
+        <v>15.58533700292503</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>35.90125436360017</v>
+        <v>35.90125436365577</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>42.53671224829236</v>
+        <v>42.53671224836614</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>23.36575047666395</v>
+        <v>23.36575047665213</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>45.77431832361856</v>
+        <v>45.77431832359218</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>53.85531180653243</v>
+        <v>53.85531180657324</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>47.37676432880176</v>
+        <v>47.37676432881449</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>58.12298972471979</v>
+        <v>58.12298972476981</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>65.06651236044524</v>
+        <v>65.06651236048162</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>26.69174882345772</v>
+        <v>26.6917488234933</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>51.36526417950756</v>
+        <v>51.36526417956861</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>60.33580102779933</v>
+        <v>60.33580102782207</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>36.11736815480015</v>
+        <v>36.11736815484346</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>29.6291865850418</v>
+        <v>29.62918658501974</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>40.37563385418559</v>
+        <v>40.37563385419969</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>47.31827640061545</v>
+        <v>47.31827640059976</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>8.952399119509895</v>
+        <v>8.952399119594364</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>33.62245206340299</v>
+        <v>33.62245206340378</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>42.59205592895182</v>
+        <v>42.59205592898786</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>12.07442078170198</v>
+        <v>12.07442078172574</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>31.07474637349378</v>
+        <v>31.07474637351732</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>38.33277134287277</v>
+        <v>38.33277134290881</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>7.826448837892602</v>
+        <v>7.826448837926367</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>28.14137850224541</v>
+        <v>28.14137850225734</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>34.77735609182071</v>
+        <v>34.77735609182241</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>15.60585144477989</v>
+        <v>15.60585144482298</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>38.01359015790661</v>
+        <v>38.01359015792423</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>46.09501564211348</v>
+        <v>46.09501564208585</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>39.61470239210814</v>
+        <v>39.6147023921518</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>50.36083594167087</v>
+        <v>50.36083594170589</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>57.30467931252304</v>
+        <v>57.30467931253759</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>18.93076799576773</v>
+        <v>18.93076799575136</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>43.6033062738037</v>
+        <v>43.6033062738619</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>52.57440318689294</v>
+        <v>52.57440318687611</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>-4.961389629649485</v>
+        <v>-4.961389629590482</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>14.02872457841727</v>
+        <v>14.02872457846275</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>21.2824833418797</v>
+        <v>21.28248334193836</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>-9.206889921166631</v>
+        <v>-9.206889921142416</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>11.09833301470019</v>
+        <v>11.0983330147576</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>17.72942603906484</v>
+        <v>17.72942603902993</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>-1.437174212083047</v>
+        <v>-1.437174212095211</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>20.96053720317025</v>
+        <v>20.96053720318958</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>29.03757744196412</v>
+        <v>29.03757744198299</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>22.5527117939771</v>
+        <v>22.55271179399154</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>33.29346769563836</v>
+        <v>33.2934676956628</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>40.23484625738411</v>
+        <v>40.23484625741492</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>1.877777312422158</v>
+        <v>1.877777312435686</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>26.53391888528268</v>
+        <v>26.53391888527608</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>35.50373085169167</v>
+        <v>35.50373085164529</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>-0.3810398327199174</v>
+        <v>-0.3810398326443156</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>18.61832493957968</v>
+        <v>18.61832493953125</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>25.87547973715619</v>
+        <v>25.8754797371696</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>-4.642061153395044</v>
+        <v>-4.64206115340232</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>15.67091910855595</v>
+        <v>15.67091910852435</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>22.30633870765667</v>
+        <v>22.30633870765485</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>3.134717039252113</v>
+        <v>3.134717039250749</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>25.54179247853495</v>
+        <v>25.5417924785013</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>6.247893475465279</v>
+        <v>6.247893475516779</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>25.23926599135564</v>
+        <v>25.23926599134825</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>32.49282945846642</v>
+        <v>32.49282945847312</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>2.005544634377433</v>
+        <v>2.005544634359016</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>22.31229801951895</v>
+        <v>22.31229801950611</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>28.94318442919371</v>
+        <v>28.94318442912015</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>9.776232805961175</v>
+        <v>9.776232805997441</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>32.17526733956061</v>
+        <v>32.17526733956345</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>40.25212931521833</v>
+        <v>40.25212931524231</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>33.76879778269586</v>
+        <v>33.76879778270086</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>44.50966956644675</v>
+        <v>44.50966956638626</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>51.45091660462845</v>
+        <v>51.45091660459639</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>13.09232602687007</v>
+        <v>13.09232602678003</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>37.7502119536739</v>
+        <v>37.75021195364366</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>46.71971283740959</v>
+        <v>46.71971283747189</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>10.83245853161714</v>
+        <v>10.83245853171139</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>29.83308178263713</v>
+        <v>29.83308178267589</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>37.09004129872608</v>
+        <v>37.09004129878122</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>6.574589337053002</v>
+        <v>6.574589337040269</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>26.88910023016127</v>
+        <v>26.88910023012875</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>33.5243132255722</v>
+        <v>33.5243132255913</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>14.35234024078125</v>
+        <v>14.35234024078943</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>36.76073897287472</v>
+        <v>36.76073897285107</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>9.299671569689398</v>
+        <v>9.299671569660067</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>28.2916687695041</v>
+        <v>28.29166876945863</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>35.54543608851816</v>
+        <v>35.54543608847473</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>5.059498644108093</v>
+        <v>5.059498644180056</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>25.36694933692616</v>
+        <v>25.36694933691627</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>31.99809242511947</v>
+        <v>31.99809242512891</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>12.83021439491779</v>
+        <v>12.83021439501158</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>35.2298726141081</v>
+        <v>35.2298726141355</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>43.30692487211161</v>
+        <v>43.30692487213719</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>36.82382598095887</v>
+        <v>36.82382598099844</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>47.56467657392272</v>
+        <v>47.56467657395683</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>54.50607091440259</v>
+        <v>54.50607091437985</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>16.14671771899896</v>
+        <v>16.1467177190367</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>40.80559394273348</v>
+        <v>40.80559394274303</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>49.77524223688476</v>
+        <v>49.77524223689841</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>13.88586541321036</v>
+        <v>13.88586541326402</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>32.88711336591871</v>
+        <v>32.88711336595509</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>40.14427680326924</v>
+        <v>40.14427680332471</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>9.630172416985264</v>
+        <v>9.630172417032558</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>29.94538064022936</v>
+        <v>29.94538064025869</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>36.58085039089747</v>
+        <v>36.58085039090156</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>17.40795097487569</v>
+        <v>17.40795097487035</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>39.8169734078723</v>
+        <v>39.816973407874</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>1.544673084624836</v>
+        <v>1.544673084646778</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>20.53590289832937</v>
+        <v>20.53590289835268</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>27.79013085334032</v>
+        <v>27.7901308533418</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>-2.697142404611778</v>
+        <v>-2.697142404647021</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>17.60932046618189</v>
+        <v>17.60932046616017</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>24.24098327486343</v>
+        <v>24.24098327489833</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>5.072562617066414</v>
+        <v>5.072562617088355</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>27.4713916466086</v>
+        <v>27.47139164660507</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>35.54887591465842</v>
+        <v>35.54887591465672</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>29.06401120062526</v>
+        <v>29.06401120059832</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>39.80476989100418</v>
+        <v>39.80476989094791</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>46.74648496790212</v>
+        <v>46.74648496786449</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>8.387984139405379</v>
+        <v>8.387984139430959</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>33.04588323423025</v>
+        <v>33.04588323421945</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>42.01609162891452</v>
+        <v>42.01609162887462</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>6.127667608534811</v>
+        <v>6.127667608668052</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>25.12814804185416</v>
+        <v>25.12814804187281</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>32.38577218334478</v>
+        <v>32.38577218336661</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>1.87033145083706</v>
+        <v>1.870331450896632</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>22.18455171259098</v>
+        <v>22.18455171266033</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>28.82054126715184</v>
+        <v>28.82054126720618</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>9.647099109282639</v>
+        <v>9.647099109287868</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>32.05529221267102</v>
+        <v>32.05529221263987</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>33.62245501288635</v>
+        <v>33.62245501284156</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>27.13345277598581</v>
+        <v>27.13345277602048</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>37.88154872041048</v>
+        <v>37.88154872044242</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>44.82468640674949</v>
+        <v>44.82468640679031</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>6.454891238353415</v>
+        <v>6.454891238387408</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>31.12672691735657</v>
+        <v>31.12672691735668</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>40.09716495101475</v>
+        <v>40.09716495098826</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>9.574087736413507</v>
+        <v>9.574087736463415</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>28.57627606791903</v>
+        <v>28.57627606795348</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>35.83476904488157</v>
+        <v>35.83476904493511</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>5.323179468172729</v>
+        <v>5.323179468180232</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>25.64014303747206</v>
+        <v>25.64014303751026</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>32.27636870885328</v>
+        <v>32.2763687089315</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>13.10361725240285</v>
+        <v>13.10361725243706</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>35.51363269403612</v>
+        <v>35.5136326940185</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>43.59567454906244</v>
+        <v>43.59567454910962</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>37.11454159273876</v>
+        <v>37.11454159276877</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>47.86232384764548</v>
+        <v>47.8623238476182</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>54.80666262835098</v>
+        <v>54.80666262839441</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>16.42883261057364</v>
+        <v>16.42883261057284</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>41.1031539313849</v>
+        <v>41.10315393139751</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>50.07508528282278</v>
+        <v>50.0750852828354</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>44.84122326762974</v>
+        <v>44.8412232676036</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>38.35375498140218</v>
+        <v>38.35375498141991</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>49.10196678011619</v>
+        <v>49.10196678013915</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>56.04497295847239</v>
+        <v>56.0449729584775</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>17.67365605286557</v>
+        <v>17.67365605284124</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>42.34723633786996</v>
+        <v>42.34723633787632</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>51.31736334430809</v>
+        <v>51.31736334432173</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>20.78920831363735</v>
+        <v>20.78920831374285</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>39.79265505789067</v>
+        <v>39.79265505793774</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>47.05095273692405</v>
+        <v>47.05095273692905</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>16.54145221620604</v>
+        <v>16.5414522162215</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>36.85994632003064</v>
+        <v>36.85994632009249</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>43.49596537796504</v>
+        <v>43.49596537800664</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>24.32286287424848</v>
+        <v>24.3228628742728</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>46.73420155632095</v>
+        <v>46.73420155634074</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>54.81606514043722</v>
+        <v>54.81606514042255</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>48.33646620507841</v>
+        <v>48.33646620510729</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>59.08436426854223</v>
+        <v>59.08436426854564</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>66.02857152226693</v>
+        <v>66.02857152225761</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>27.6492198387499</v>
+        <v>27.64921983873626</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>52.32528566314841</v>
+        <v>52.32528566314375</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>61.29690596478486</v>
+        <v>61.29690596478224</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>47.89764805299535</v>
+        <v>47.89764805303821</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>41.41041215427413</v>
+        <v>41.41041215430141</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>52.15860268854567</v>
+        <v>52.15860268862821</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>59.10175623875546</v>
+        <v>59.10175623879024</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>20.72967677483291</v>
+        <v>20.72967677483917</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>45.40424741081222</v>
+        <v>45.40424741085735</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>54.37452190198042</v>
+        <v>54.3745219019961</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>23.84428821185771</v>
+        <v>23.84428821196048</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>42.84835966010701</v>
+        <v>42.84835966015976</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>50.10686121311028</v>
+        <v>50.10686121315757</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>19.59870830860848</v>
+        <v>19.5987083086128</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>39.91789973651373</v>
+        <v>39.91789973657831</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>46.55417550749632</v>
+        <v>46.55417550753589</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>27.38014670677194</v>
+        <v>27.38014670683902</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>49.79210909614676</v>
+        <v>49.79210909615654</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>57.87416297614459</v>
+        <v>57.87416297616403</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>51.39479641944774</v>
+        <v>51.39479641943944</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>62.14267320527097</v>
+        <v>62.14267320530018</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>69.08702777665121</v>
+        <v>69.08702777658152</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>30.70691351516826</v>
+        <v>30.70691351519088</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>55.38396964538015</v>
+        <v>55.38396964539527</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>64.35573742082374</v>
+        <v>64.35573742086706</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>40.13639892532979</v>
+        <v>40.13639892526612</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>33.64739710955462</v>
+        <v>33.64739710963181</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>44.39549573808097</v>
+        <v>44.39549573810541</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>51.33897008998463</v>
+        <v>51.33897008994359</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>12.96774309817113</v>
+        <v>12.96774309820126</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>37.64133644190622</v>
+        <v>37.64133644188882</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>46.61217104432478</v>
+        <v>46.61217104429534</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>16.08596197711495</v>
+        <v>16.08596197724592</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>35.08926600614473</v>
+        <v>35.08926600616292</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>42.34822824400317</v>
+        <v>42.34822824403386</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>11.83873892358008</v>
+        <v>11.83873892355735</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>32.15694252541459</v>
+        <v>32.15694252539208</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>38.79373807588479</v>
+        <v>38.79373807584136</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>19.61916633038379</v>
+        <v>19.61916633037947</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>42.03029947813968</v>
+        <v>42.03029947808329</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>50.11278541746458</v>
+        <v>50.11278541748527</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>43.63165288535981</v>
+        <v>43.63165288542905</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>54.37943780995727</v>
+        <v>54.37943780998103</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>61.3241131552353</v>
+        <v>61.3241131552968</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>22.94485121966466</v>
+        <v>22.94485121967933</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>47.62093015102016</v>
+        <v>47.62093015102823</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>56.59325806260847</v>
+        <v>56.5932580625398</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>-4.787668119051769</v>
+        <v>-4.787668118979351</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>14.20041598433341</v>
+        <v>14.20041598431522</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>21.45422415641997</v>
+        <v>21.45422415643066</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>-9.032483104342301</v>
+        <v>-9.03248310431081</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>11.27065037224941</v>
+        <v>11.2706503722817</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>17.90185913275593</v>
+        <v>17.90185913277458</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>-1.26394124999069</v>
+        <v>-1.263941249990349</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>21.13154414862118</v>
+        <v>21.13154414864755</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>29.20857382601378</v>
+        <v>29.20857382602469</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>22.7240272304091</v>
+        <v>22.72402723043058</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>33.46389437668518</v>
+        <v>33.46389437672326</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>40.40524126955438</v>
+        <v>40.40524126963612</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>2.051692739388503</v>
+        <v>2.051692739402942</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>26.70525548466572</v>
+        <v>26.70525548461535</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>35.67509252495029</v>
+        <v>35.67509252491243</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>-0.2080917021711421</v>
+        <v>-0.2080917021690958</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>18.78924247020746</v>
+        <v>18.78924247021735</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>26.04644662661895</v>
+        <v>26.04644662658336</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>-4.468426626717584</v>
+        <v>-4.468426626713377</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>15.84246380815671</v>
+        <v>15.84246380819582</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>22.47799903393366</v>
+        <v>22.47799903390228</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>3.307177007334534</v>
+        <v>3.30717700730975</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>25.71202590848407</v>
+        <v>25.71202590852841</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>6.421124595474229</v>
+        <v>6.421124595569953</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>25.4104669120128</v>
+        <v>25.41046691200711</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>32.66407981703799</v>
+        <v>32.66407981707596</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>2.179460849081241</v>
+        <v>2.179460849107276</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>22.48412465540548</v>
+        <v>22.48412465542708</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>29.11512683739454</v>
+        <v>29.11512683740591</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>9.94897511639579</v>
+        <v>9.948975116382829</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>32.34578353593747</v>
+        <v>32.34578353595384</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>40.42263497825411</v>
+        <v>40.42263497829299</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>33.93962238412098</v>
+        <v>33.93962238415736</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>44.67960540777256</v>
+        <v>44.67960540778597</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>51.6208207871374</v>
+        <v>51.62082078713809</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>13.26575072631931</v>
+        <v>13.26575072632</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>37.921057691138</v>
+        <v>37.92105769116233</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>46.89058368862584</v>
+        <v>46.89058368865085</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>11.00491596439565</v>
+        <v>11.00491596442089</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>30.00350852050906</v>
+        <v>30.00350852056068</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>37.26051742502978</v>
+        <v>37.26051742506229</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>6.747732954229836</v>
+        <v>6.747732954213919</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>27.0601539010354</v>
+        <v>27.0601539010479</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>33.69548255913401</v>
+        <v>33.69548255916288</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>14.52430924982662</v>
+        <v>14.5243092498265</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>36.93048134602589</v>
+        <v>36.93048134603055</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>9.472790245299624</v>
+        <v>9.472790245369769</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>28.46275721134771</v>
+        <v>28.46275721135396</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>35.71657395729471</v>
+        <v>35.71657395734258</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>5.233302264551643</v>
+        <v>5.233302264546982</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>25.53866333965971</v>
+        <v>25.53866333968233</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>32.16992218365999</v>
+        <v>32.16992218365874</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>13.00284411953772</v>
+        <v>13.0028441195849</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>35.40027619026773</v>
+        <v>35.40027619033492</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>43.47731790558555</v>
+        <v>43.47731790560158</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>36.99453792289398</v>
+        <v>36.99453792291843</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>47.73449975649771</v>
+        <v>47.73449975653648</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>54.67586243041364</v>
+        <v>54.67586243040614</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>16.3200297918321</v>
+        <v>16.32002979189383</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>40.97632699465782</v>
+        <v>40.97632699472206</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>49.94600039910063</v>
+        <v>49.94600039911847</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>14.05821028308742</v>
+        <v>14.05821028319827</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>33.05742750659306</v>
+        <v>33.05742750658476</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>40.3146403213409</v>
+        <v>40.3146403213683</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>9.803203321087384</v>
+        <v>9.803203321109553</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>30.11632155954783</v>
+        <v>30.11632155956409</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>36.75190695650792</v>
+        <v>36.75190695649644</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>17.5798072796033</v>
+        <v>17.57980727962502</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>39.9866030424871</v>
+        <v>39.98660304250336</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>1.718103528020951</v>
+        <v>1.71810352806995</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>20.7073031744809</v>
+        <v>20.7073031744568</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>27.96158051122928</v>
+        <v>27.9615805112361</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>-2.523026904238005</v>
+        <v>-2.523026904203331</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>17.78134643802571</v>
+        <v>17.78134643800741</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>24.41312494518082</v>
+        <v>24.41312494521845</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>5.245504277277522</v>
+        <v>5.245504277264903</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>27.64210722653604</v>
+        <v>27.64210722657572</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>35.71958090967598</v>
+        <v>35.71958090968292</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>29.23503522293186</v>
+        <v>29.23503522300462</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>39.97490515414506</v>
+        <v>39.97490515418713</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>46.91658854609318</v>
+        <v>46.91658854610455</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>8.561608211042543</v>
+        <v>8.561608211070737</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>33.21692837193314</v>
+        <v>33.21692837195474</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>42.18716182542971</v>
+        <v>42.18716182541198</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>6.300324488487153</v>
+        <v>6.300324488530013</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>25.29877425879386</v>
+        <v>25.29877425881012</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>32.55644773250992</v>
+        <v>32.55644773251913</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>2.043674477578637</v>
+        <v>2.043674477621611</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>22.35580484301181</v>
+        <v>22.35580484298089</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>28.9919099865615</v>
+        <v>28.99190998660447</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>9.819267591589782</v>
+        <v>9.819267591617066</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>32.22523409336213</v>
+        <v>32.22523409338669</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>33.79267782153761</v>
+        <v>33.79267782155193</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>27.30399481913185</v>
+        <v>27.30399481920631</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>38.05120160314675</v>
+        <v>38.05120160320848</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>44.99430764429269</v>
+        <v>44.99430764431622</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>6.628033398393999</v>
+        <v>6.628033398439587</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>31.29728949924413</v>
+        <v>31.29728949923583</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>40.26775258462487</v>
+        <v>40.26775258467751</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>9.747805306872696</v>
+        <v>9.747805306858599</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>28.74796294015062</v>
+        <v>28.74796294012515</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>36.00650505714827</v>
+        <v>36.00650505713872</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>5.497582858290915</v>
+        <v>5.497582858356967</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>25.81245642102238</v>
+        <v>25.81245642097611</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>32.44879755792329</v>
+        <v>32.44879755790953</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>13.27684593545974</v>
+        <v>13.2768459354287</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>35.68463474538794</v>
+        <v>35.68463474532643</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>43.76666575872787</v>
+        <v>43.76666575874344</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>37.28585153622453</v>
+        <v>37.28585153626966</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>48.0327446317217</v>
+        <v>48.0327446317134</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>54.97705162419879</v>
+        <v>54.97705162422324</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>16.60274302481014</v>
+        <v>16.6027430248148</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>41.27448462977588</v>
+        <v>41.2744846297976</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>50.2464408698537</v>
+        <v>50.24644086981539</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>45.01095504800071</v>
+        <v>45.01095504801128</v>
       </c>
     </row>
     <row r="837">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>49.27112851574827</v>
+        <v>49.27112851571849</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>56.21410305911149</v>
+        <v>56.21410305911377</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>17.84630717827986</v>
+        <v>17.8463071783134</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>42.51730775084116</v>
+        <v>42.51730775088174</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>51.48745984891571</v>
+        <v>51.4874598489406</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>20.96243512162141</v>
+        <v>20.96243512166598</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>39.96385107255833</v>
+        <v>39.96385107258834</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>47.22219792110536</v>
+        <v>47.22219792113788</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>16.71536463228063</v>
+        <v>16.71536463230268</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>37.03176861010297</v>
+        <v>37.03176861013935</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>43.66790316937772</v>
+        <v>43.66790316937909</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>24.49560053379082</v>
+        <v>24.49560053376343</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>46.90471248628228</v>
+        <v>46.90471248628762</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>54.98656525697743</v>
+        <v>54.98656525697663</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>48.5072849415842</v>
+        <v>48.50728494158818</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>59.25429384107917</v>
+        <v>59.25429384105757</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>66.19846931659697</v>
+        <v>66.19846931655763</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>27.82263915355793</v>
+        <v>27.82263915353292</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>52.49612512768579</v>
+        <v>52.4961251277216</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>61.46777035778462</v>
+        <v>61.46777035777654</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>48.0672670854442</v>
+        <v>48.06726708546068</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>41.58035027757421</v>
+        <v>41.58035027763344</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>52.32765164713112</v>
+        <v>52.32765164720649</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>59.27077355477161</v>
+        <v>59.27077355488848</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>20.90221515500935</v>
+        <v>20.90221515505425</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>45.57420601973877</v>
+        <v>45.57420601979277</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>54.54450559935276</v>
+        <v>54.5445055993531</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>24.01740235995158</v>
+        <v>24.0174023599617</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>43.01944298046828</v>
+        <v>43.0194429804418</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>50.27799369214063</v>
+        <v>50.27799369214142</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>19.77250791492077</v>
+        <v>19.77250791491463</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>40.08960917818092</v>
+        <v>40.08960917819047</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>46.72600043410637</v>
+        <v>46.72600043414707</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>27.55277156490206</v>
+        <v>27.55277156493276</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>49.96250719060095</v>
+        <v>49.96250719062004</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>58.04455024796505</v>
+        <v>58.0445502479779</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>51.56550228093977</v>
+        <v>51.56550228093943</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>62.31248990366942</v>
+        <v>62.31248990375229</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>69.2568126891839</v>
+        <v>69.25681268924177</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>30.88021998775071</v>
+        <v>30.8802199878088</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>55.55469620865472</v>
+        <v>55.554696208731</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>64.52648890953162</v>
+        <v>64.52648890954015</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>40.30633016149386</v>
+        <v>40.30633016148545</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>33.81764755581173</v>
+        <v>33.8176475558372</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>44.56485701955751</v>
+        <v>44.56485701962481</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>51.50829971027349</v>
+        <v>51.50829971033806</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>13.14059371962515</v>
+        <v>13.1405937196688</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>37.81160737906396</v>
+        <v>37.81160737906305</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>46.78246701832506</v>
+        <v>46.78246701829391</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>16.25938811085792</v>
+        <v>16.25938811086337</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>35.26066137838222</v>
+        <v>35.26066137843497</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>42.51967272973263</v>
+        <v>42.51967272977265</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>12.01285062773173</v>
+        <v>12.01285062777072</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>32.32896415363621</v>
+        <v>32.32896415359539</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>38.96587513181362</v>
+        <v>38.9658751318608</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>19.7921033414857</v>
+        <v>19.79210334145842</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>42.20100979398285</v>
+        <v>42.20100979397466</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>50.28348486859295</v>
+        <v>50.28348486856657</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>43.80267104511506</v>
+        <v>43.80267104515337</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>54.54956680640169</v>
+        <v>54.54956680637247</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>61.49421034755449</v>
+        <v>61.49421034758757</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>23.11846990888364</v>
+        <v>23.11846990889456</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>47.79196901832972</v>
+        <v>47.7919690183777</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>56.76432180345307</v>
+        <v>56.76432180348309</v>
       </c>
     </row>
   </sheetData>
